--- a/setn_data.xlsx
+++ b/setn_data.xlsx
@@ -25,113 +25,113 @@
     <t>content</t>
   </si>
   <si>
-    <t>陳建仁花最多心思留任他？林濁水這樣看</t>
-  </si>
-  <si>
-    <t>捷克總統當選人將與蔡英文通話？府回應了</t>
-  </si>
-  <si>
-    <t>捷克媒體曝：總統當選人將與台灣總統通話</t>
-  </si>
-  <si>
-    <t>陳建仁組閣　侯友宜向中央喊這句</t>
-  </si>
-  <si>
-    <t>連三胎生男！蔣萬安笑：想知道包生女秘訣</t>
-  </si>
-  <si>
-    <t>陳建仁新內閣　吳子嘉預言這2人將戰2024</t>
-  </si>
-  <si>
-    <t>陳建仁公開第二波新內閣　17人名單一次看</t>
-  </si>
-  <si>
-    <t>陳建仁公開首波新內閣　20人名單一次看</t>
-  </si>
-  <si>
-    <t>媒體人揭林右昌實力　籲國民黨立委留口德</t>
-  </si>
-  <si>
-    <t>陳建仁內閣人事底定　最後一波內閣名單曝</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1244371</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1244641</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1244629</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1244619</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1244367</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1244522</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1244441</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1244212</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1244661</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1244682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／許元馨報導▲首波新內閣名單，秘書長由熟稔政院事務的李孟諺留任。（圖／翻攝自行政院提供）準閣揆陳建仁昨（27）日晚間公開20位「首波新內閣名單」，副院長由桃園市前市長鄭文燦出任，秘書長由熟稔政院事務的李孟諺留任。對此，前立委林濁水今（28）日在臉書表示，「內閣每個位置都很重要，都得花心思安排，但是現在陳建仁花最多心思的是行政院秘書長，反而部會首長看來反而不費心就OK，未免異常。」針對新內閣人事，林濁水在臉書發文表示，「內閣每個位置都很重要，都得花心思安排，但是現在陳建仁花最多心思的是行政院秘書長，反而部會首長看來反而不費心就OK，未免異常。」林濁水指出，部會首長，個個要領導大部隊，要有獨當一面的領袖才能，要能和民眾溝通，要能在國會中面對虎豹獅象，有一定的專業程度；相對的，秘書長本質上是內務總管，固然也不是隨便人就可以當，但條件比起部長大有差別。因此，林濁水認為，「現在陳建仁遇難則易，遇易則難，為什麼這樣？令人大大驚奇。」
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-記者盧素梅／台北報導針對蔡英文總統是否與捷克總統當選人帕維爾(Petr Pavel）通話一事，總統府發言人張惇涵今（29）日表示，蔡英文代表台灣政府與人民，祝賀捷克順利完成民主大選，也對帕維爾總統當選人表達誠摯祝賀。至於通話一事，他表示，外交部都會進行妥善的評估與規劃，定案後也將與社會報告說明。▲捷克總統當選人帕維爾(Petr Pavel)(圖/翻攝自推特general_pavel)捷克總統大選落幕，前北約軍事委員會主席帕維爾(Petr Pavel)將軍以得票率58.32%勝出，成為捷克自1993年獨立後第四任總統，，蔡英文總統28日晚間在第一時間代表台灣政府與人民對帕維爾總統當選人表達誠摯祝賀。當地媒體報導稱，今（29）日帕維爾將與烏克蘭總統澤倫斯基和台灣總統蔡英文通話。對此，張惇涵表示，蔡英文代表台灣政府與人民，祝賀捷克順利完成民主大選，也對帕維爾總統當選人表達誠摯祝賀。張惇涵並表示，台灣與捷克是共享普世價值的民主夥伴，近年更在經貿、科技、文化及教育等各項領域緊密交流；在全球疫情爆發以來，台灣與捷克更加強防疫及關鍵產業合作，攜手提升雙方醫療公衛量能，共同強化民主供應鏈韌性。至於蔡英文是否與帕維爾總統當選人通話，張惇涵則表示，台灣與捷克將強化雙方各項領域合作關係，對於促進雙方互動有益的方式，外交部都會進行妥善的評估與規劃，定案後也將與社會報告說明。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／綜合報導▲捷克總統當選人帕維爾(Petr Pavel)(圖/翻攝自推特general_pavel)捷克總統大選落幕，前北約軍事委員會主席帕維爾(Petr Pavel)將軍以得票率58.32%勝出，成為捷克自1993年獨立後第四任總統，，蔡英文總統28日晚間在第一時間代表台灣政府與人民對帕維爾總統當選人表達誠摯祝賀。當地媒體報導稱，今（29）日帕維爾將與烏克蘭總統澤倫斯基和台灣總統蔡英文通話。捷媒「Seznam Zprávy」28日報導，帕維爾當選後收到來自全球領導人的祝賀，他的外交政策顧問、前外交官科拉羅（Petr Kolář）也證實，他29日將與澤倫斯基及蔡英文通話，目前也正安排和其他元首通話。外交部上午發出新聞稿表示，捷克於27至28日舉行總統大選第二輪決選，前北約軍事委員會主席帕維爾(Petr Pavel)將軍以得票率58.32%勝出，將於3月初正式就職，成為捷克自1993年獨立後第四任總統，蔡英文總統28日晚間在第一時間代表台灣政府與人民對帕維爾總統當選人表達誠摯祝賀。外交部表示，此次捷克總統大選第二輪選舉備受各界關注，選民投票踴躍，投票率高達70.25%，較前次2018年的66.57%，高出3.68%，也創下2013年總統直選以來的新高。外交部說，捷克是台灣在歐洲重要理念相近夥伴，不僅共享自由、民主與人權價值，並在經貿、科技、文化及教育等各領域緊密合作；雙方在疫情爆發後更加強防疫及關鍵產業合作，強化民主供應鏈韌性；去年2月底俄烏戰事爆發後，兩國也積極攜手，共同協助安置流離失所的烏克蘭難民。捷克政府去年公布施政綱領(Policy Statement of the Government)，將台灣列為在印太地區的重點合作國家，隨後又推出印太戰略，重申台灣為捷克未來印太政策的主要夥伴，將持續深化與台灣等印太地區民主夥伴的合作交流，及關注台海情勢與南海議題。 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-記者盧素梅／台北報導蔡政府在農曆春節公布內閣改組，由前副總統陳建仁擔任閣揆，桃園市前市長鄭文燦擔任副閣揆，對於內閣新人事，新北市長侯友宜今（29）日回應指出，這是中央的職權，既然提了內閣人選，只要是定了他還是會祝福，最重要的是定了以後，要全心全意的關心人民福祉，地方一定跟中央攜手合作。▲新北市長侯友宜今（29）日訪視深坑老街商圈陳建仁即將在31日就任行政院長。但藍營踢爆，早在2007年，陳建仁擔任國科會主委期間，他掛名共同作者的論文投稿到國際知名期刊《Cancer》，被期刊編輯指稱「涉嫌抄襲」，引發軒然大波。國民黨立委賴士葆呼籲陳建仁若要出來當院長，「應先向大眾說明此事以及學術標準」。侯友宜上午訪視深坑老街商圈時，被問到鄭文燦論文涉嫌抄襲，陳建仁冠名期刊也涉抄襲，民進黨不知反省？侯友宜表示，內閣人事是中央的職權，既然提了內閣人選，只要是定了他還是會祝福，最重要的是定了以後，要全心全意的關心人民福祉，地方一定跟中央攜手合作。侯友宜並表示，只要讓這塊土地越來越好、能進步，看到台灣、看到中華民國，能夠永續繁榮才是我們最大心願。所以趕快定下來，我們就趕快攜手合作，好好努力做事情，希望把事情做順利成功。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-記者陳怡潔／台北報導▲連三胎生男！蔣萬安笑：想知道包生女秘訣。台北市長蔣萬安在昨天大年初六晚間喜獲麟兒，而一連三胎都生男生，今（28）日被問到有沒有「包生男」秘訣？蔣萬安哈哈大笑說，「我現在比較想知道有沒有包生女秘訣」。至於三寶的名字是否想好了？蔣萬安表示，還沒想好，因為這孩子很特別，在去年疫情時間太太懷孕，他在選舉時三寶也陪太太奔波，參與選舉，因此希望好好跟太太選個名，給這個特別的孩子。看更多新聞》預測2025年「美中交戰」 美國空軍上將：希望我是錯的昨晚迎接三寶到來，蔣萬安今天受訪時表示，太太剛生產完在醫院休養，自然產恢復情況蠻快的，注意飲食注意，把月子做好，也謝謝醫生護理師團隊的幫助。媒體詢問，會拚第四胎嗎？蔣萬安說，先讓太太好好休息，三個孩子真的會讓他們蠻忙的，最重要是太太身體盡快復原，希望剛出生的三寶能夠好好照顧。而前台北市長柯文哲也在臉書留言獻上祝福，蔣萬安說，謝謝柯文哲、台北市前副市長黃珊珊，還有許多過去在立院的同事等等都前來祝福，三寶得到大家祝福，相信未來可以健康快樂長大。至於「神救援」爺爺奶奶是否出動？蔣萬安哈哈哈笑說，神救援已經出動了，昨天開始老大、老二都在爺爺奶奶家，感謝爺爺奶奶幫忙，才能讓太太安心休養。看更多新聞》林書豪宣布下週會飛台灣！寵粉喊「期待看到你們」 回應首秀時間蔣萬安也談及生育補助表示，在他上任後的第二場市政會議，已經指示相關局處研擬生第一胎從2萬提升4萬，第二胎4萬5，第三胎5萬，目前盤點相關財源，盡速達成目標。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／綜合報導▲總統蔡英文正式宣布陳建仁（右）為新任行政院長。（圖／總統府提供）總統蔡英文27日召開記者會，宣布由前副總統陳建仁籌組「溫柔堅韌」內閣，副院長由前桃園市長鄭文燦出任。《美麗島電子報》董事長吳子嘉28日表示，若陳建仁的聲望越來越高，他認為陳建仁、鄭文燦將有可能參選總統。看更多新聞》「初九拜天公」10大注意事項一次看！誤踩這點慘窮1整年蔡英文宣布內閣改組，並交付新內閣團隊包括：階段性盤整防疫措施、社會照顧體系的總檢討、持續提升國家基礎建設、推動六大核心戰略產業等4大任務。陳建仁內閣時代到來，新內閣較具政治性的部會首長已大致底定。吳子嘉28日在《董事長開講》網路節目中指出，陳建仁內閣將在3個月內就會碰到很多問題，此項挑戰要看他能不能過關。看更多新聞》高雄驚傳雙屍命案！69歲女墜樓身亡 警調查驚見室友慘死吳子嘉表示，目前新內閣的特性，將恢復到蔡英文第一次當總統的時代，「唯一的特性，就是它跟賴清德沒有關係，現在這個內閣，蔡英文就是要告訴大家I am the boss，這個內閣不會有什麼作為」，蔡英文將繼續掌握政府。最後吳子嘉指出，萬一陳建仁聲望越來越高，爆出「陳建仁、鄭文燦將有可能參選總統，讓賴清德增加許多黨內競爭者」。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／陳慈鈴報導▲陳建仁公開第二波新內閣，「全閣員將就定位」。（圖／翻攝自陳建仁 Chen Chien-Jen臉書）準閣揆陳建仁今（28）日晚間在臉書公開「第二波內閣名單」。陳建仁透露，今日陸續徵詢相關部會首長人選，組閣的原則為穩健銜接政務、擴大世代合作、增加女性閣員，再加上用人唯才、適才適所，延續過去蘇貞昌院長團隊的優秀政績，目的是讓更多願意為國家做事的人才，為國家做事，為人民打拚。同時，陳建仁也表示，「所有閣員將在這兩天就定位，待年假結束開工上班後，就會向國人同胞正式宣佈，讓我們團結一致，齊心打拚！」看更多新聞》陳建仁組閣花最多心思留任「他」？林濁水：令人大大驚奇▲▼第二波新內閣出爐。（圖／翻攝自陳建仁 Chen Chien-Jen臉書）【陳建仁公開第二波閣員名單】內政部長：林右昌文化部長：史哲國立故宮博物院院長：蕭宗煌教育部長：潘文忠法務部長：蔡清祥金融監督管理委員會主任委員：黃天牧行政院環境保護署：張子敬交通部長：王國材衛生福利部長：薛瑞元行政院農業委員會主任委員：陳吉仲數位發展部長：唐鳳國軍退役官兵輔導委員會主任委員：馮世寬客家委員會主任委員：楊長鎮原住民族委員會主任委員：夷將．拔路兒 Icyang．Parod行政院人事行政總處人事長：蘇俊榮行政院主計處主計長：朱澤民台灣美國事務委員會主任委員：楊珍妮看更多新聞》從小習樂！新任文化部長史哲「擅長大型活動」　台灣燈會到文博會都有他
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／陳慈鈴報導▲副總統陳建仁成為準閣揆，今日親自公開「首波新內閣名單」。（圖／翻攝自陳建仁 Chen Chien-Jen臉書）準閣揆陳建仁今（27）日晚間在臉書公開「首波新內閣名單」。陳建仁不僅喊話，「溫柔堅韌、繼續向前！」也承諾「今天起我會陸續徵詢接下來的新任閣員，這是我正式公佈的第一波閣員名單，新的行政團隊一切就位之後，一定全力以赴，在每一天、每一個關鍵的時刻，為人民打拚，為台灣努力！」【陳建仁公開第一波閣員名單】行政院長：陳建仁行政副院長：鄭文燦秘書長 ：李孟諺發言人：陳宗彥政務委員：吳澤成政務委員：林萬億政務委員：張景森政務委員：鄧振中政務委員：羅秉成政務委員：吳政忠（兼國家科學及技術委員會主任委員）政務委員：李永得（原文化部長）政務委員：龔明鑫（兼國家發展會主任委員）政務委員：黃致達經濟部長：王美花勞動部長：許銘春海洋委員會主任委員：管碧玲僑部委員會委員長：徐佳青（原僑部委員會副委員長）行政院原子能委員會主任委員：張靜文（原行政院原子能委員會副主任委員）財政部長：莊翠雲行政院政務副祕書長：何佩珊
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-記者李鴻典／台北報導▲內政部長由前基隆市長林右昌出任。（圖／翻攝自林右昌臉書）前副總統陳建仁接任閣揆，新內閣人事陸續揭曉，對於內政部長由前基隆市長林右昌出任，國民黨立委李德維批評，林右昌沒中央行政資歷練，連民代都沒當過就接「首席部長」，對此，資深媒體人周玉蔻說，期待林右昌將基隆傳奇轉化為內政部的再出發，藍委囗下留徳，拭目以待吧。周玉蔻表示，藍營立委批判內閣成員人選，負面評價定論本不足奇，不過，以林右昌「只」治理過30萬人口的基隆市而奚落他，恐怕有待商榷。她說，「這位立委評論我的家鄉小小基隆的不屑語氣，得罪了大部分肯定基隆市近年進步多多，以基隆為榮的基隆市民也就罷了。權貴級出身背景的藍委不做功課，未能了解國民黨籍基隆市長對這個歷史悠久港都城市摧殘十六年的惡夢，如何在林右昌虔心改變下，轉廢墟為希望之都，就胡亂指控林右昌出任內政部長的能力，實在有失立委專業素質」。周玉蔻指出，內政部第一大部，包山包海，任何一位政治人物入主，都是考驗，林右昌如此，以前的內政部長任命人選亦是相同。林右昌選上基隆市長前，曾任職行政院長游錫堃時代辦公室，對於各部會，特別是內政部的業務，應不陌生。他八年市長為基隆市爭取的建設經費，即是得力於當年在行政院長身邊的歷練。周玉蔻進一步表示，基隆雖小，港都轉型茲事體大，與中央相關政策涵蓋國防、經濟、交通、內政、財政及教育、文化等所有部會，若非耐心十足，信心堅毅，嫻熟各項建設內涵，林右昌很難獲得中央認同掖助，進而從基隆市願景規劃的實績中，蠃得跨越藍綠市民掌聲。周玉蔻說，內政部主管政策多元，一位耐煩的部長如林右昌，應是正確的開始。不敢保証林右昌未來政績一定如何亮眼，但與歷任前內政部長包括國民黨籍者相比，他一點都不遜色。期待林右昌將基隆傳奇轉化為內政部的再出發，藍委囗下留徳，拭目以待吧。 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-記者盧素梅／台北報導即將接任新任閣揆陳建仁今（29）日公布第三波內閣首名單，外交部長吳釗燮、國防部長邱國正、陸委會主委邱太三均將留任，另外，陸委會副主委邱垂正和海基會副董事長詹志宏兩人職位對調，前北市議員梁文傑將接任另一陸委會副主委。▲國防部長邱國正。（資料照）陳建仁日前先公布兩波內閣人事，剩下總統職掌的國防、外交及陸委會等人事未公布，並在今天公布。預定接任行政院發言人陳宗彥下午表示，這次國防外交與兩岸事務機關首長名單，是蔡英文總統與陳建仁院長進行充分討論，以持續落實加強全民國防、國安外交工作零距離、穩健兩岸政策為原則，讓國防外交與兩岸事務等工作，能夠穩健銜接並迅速就定位。▲陸委會主委邱太三。（圖／翻攝自陸委會臉書）相關人事名單，外交部長吳釗燮、國防部長邱國正、陸委會主委邱太三，均是留任。另，原海基會副董事長兼秘書長詹志宏則將轉任陸委會副主委、原陸委會副主委邱垂正則將轉任海基會副董事長兼秘書長。原先另一位陸委會副主委吳美紅，因具文官資格，故將轉任海委會常務副主委。其陸委會副主委遺缺將由前台北市議員梁文傑接任，海委會另一位副主委周美伍兼海巡署長留任。陳建仁隨後也在臉書發布外交部長吳釗燮、國防部長邱國正、陸委會主委邱太三的人事消息。他表示，年假最後一天，他也公布第三波內閣名單，以外交國防與兩岸事務部會首長為主。相關部會的次長、副主委也大致徵詢完畢，將在明天正式上班日對外宣布，新的內閣團隊也即將上工，「我期許自己以及所有的閣員，要做人民的公僕，而公僕的天職就是傾聽民意、為人民做事，我相信，台灣一定會越來越好！」
+    <t>細解陳建仁內閣　學者：他讓人較為意外</t>
+  </si>
+  <si>
+    <t>許淑華學位保住了！逢甲證實論文通過審核</t>
+  </si>
+  <si>
+    <t>超級比一比！他曝陳建仁替國庫省2300萬</t>
+  </si>
+  <si>
+    <t>陳建仁借調當閣揆　藍營流彈掃到自家人？</t>
+  </si>
+  <si>
+    <t>林右昌今任內政部長　深夜點綠營敗選關鍵</t>
+  </si>
+  <si>
+    <t>余正煌調內勤「考績乙等」　調查局回應了</t>
+  </si>
+  <si>
+    <t>賴清德搭蕭美琴勝率高？最新民調結果驚人</t>
+  </si>
+  <si>
+    <t>邀賴清德加入國安晨會　座位安排藏玄機！</t>
+  </si>
+  <si>
+    <t>藍營18招想黑陳建仁？綠委笑：頭撞花崗岩</t>
+  </si>
+  <si>
+    <t>侯友宜郭台銘選總統？王金平：都不是時候</t>
+  </si>
+  <si>
+    <t>https://www.setn.com/News.aspx?NewsID=1245792</t>
+  </si>
+  <si>
+    <t>https://www.setn.com/News.aspx?NewsID=1245302</t>
+  </si>
+  <si>
+    <t>https://www.setn.com/News.aspx?NewsID=1245582</t>
+  </si>
+  <si>
+    <t>https://www.setn.com/News.aspx?NewsID=1245680</t>
+  </si>
+  <si>
+    <t>https://www.setn.com/News.aspx?NewsID=1245249</t>
+  </si>
+  <si>
+    <t>https://www.setn.com/News.aspx?NewsID=1245743</t>
+  </si>
+  <si>
+    <t>https://www.setn.com/News.aspx?NewsID=1245770</t>
+  </si>
+  <si>
+    <t>https://www.setn.com/News.aspx?NewsID=1245786</t>
+  </si>
+  <si>
+    <t>https://www.setn.com/News.aspx?NewsID=1245650</t>
+  </si>
+  <si>
+    <t>https://www.setn.com/News.aspx?NewsID=1245346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+記者李鴻典／台北報導▲行政院長陳建仁正式上任。（圖／行政院提供)陳建仁內閣接力上陣，連日引發討論，學者范世平寫道，「新內閣承先啟後，中生代接棒向前」。范世平說，當蘇貞昌在19日於總預算通過後到立院致謝，外界多認為他已決定請辭，但還是有人放話說他可能在年後「重新復出」，甚至批評他戀棧權力；今天內閣交接，一舉粉碎之前的流言，他留下完美的謝幕身影。在蔡英文於春節期間的殷殷力勸下，「暖男」陳建仁終於答應擔任閣揆，他絕對沒有一絲的政治盤算與權力企圖，而是為了台灣，為了民進黨。賴清德主持這場交接典禮，他高度肯定蘇揆與大仁哥，還是全程致詞不看稿的充分展現自信。范世平指出，府、院、黨凸顯了團結一致的氛圍，也為明年1月的總統與立委大選預作準備，更讓民進黨在去年11月26日的縣市長選舉慘敗後重新恢復了元氣。「台灣民意基金會」27日公佈的最新民調，台灣人的政黨支持傾向中，有26.1％支持民進黨，21.5％支持國民黨，20.3％支持民眾黨。范世平進一步分析，與去年12月相比，民進黨的支持度小幅增加了1.4%（當時是24.7%），國民黨則下滑了3.6%（當時是25.1%），這已超過誤差範圍，民眾黨增加了2.6%（當時是17.7%）；而去年12月國民黨的支持度因為11月選舉大勝而狂飆了6.5%，一舉超越長期為最受歡迎政黨的民進黨。范世平還說，今年1月民進黨又重回第一，因為去年12月賴清德舉辦了20場「向黨員報告」說明會，並要台南市長黃偉哲與六位立委向市民道歉，使得外界覺得民進黨有虛心檢討的決心 ；加上國民黨讓王鴻薇剛當選市議員就「落跑」選立委，林奕華不辭立委卻就職台北市副市長，一連串的傲慢態度讓民眾反感。所以民進黨只要真心誠意的反省改進，民眾就不吝於給予正面反應。新就任內政部長林右昌發出的「千字文」，點出了去年縣市長選舉大敗的原因，就是疫情對中小企業的確產生嚴重衝擊，與亮麗的數字形成反差。這次內閣改組，凸顯了兩個特點，一個就是中生代的獨當一面，許多不到55歲的「野百合學運世代」正式接班。范世平表示，包括行政院副院長鄭文燦、林右昌、僑委會委員長徐佳青與副委員長阮昭雄、文化部長史哲、國安局長蔡明彥、行政院發言人陳宗彥、陸委會副主委梁文傑都是，特別是林右昌與梁文傑都只有51歲。另一個特質是女性閣員增加，特別是海洋委員會主委過去是軍人或男性擔任，這次換上管碧玲，相信會有另類的思維；至於原子能委員會屬於理工領域，過去的主委也多為男性，這次則由張靜文擔任。讓人較為意外的是國安局長蔡明彥，國安局長長期由軍職上將擔任，所以就職時多為60歲以上，即便是文人身分的陳明通也是66歲任職，蔡顯然較為年輕。而蔡為英國博士，又擔任駐歐盟代表與比利時大使，對歐洲相當了解。近年來台歐關係大幅提升，未來的一年勢必有更多突破；捷克新當選總統帕維爾昨天與蔡英文通上電話，並期待與蔡見面；2021年在中國的強烈反彈下，我國在立陶宛成立了「台灣代表處」。而這也凸顯蔡英文希望國安局能走向文人領導與專業化的道路。范世平也說，另一讓人矚目之處就是中華經濟研究院WTO中心副執行長李淳擔任外交部政務次長，他非出身國際關係領域，但事實上台灣對外最強的項目就是經貿。雖然外交部近年來透過更改特考科目與強化在職訓練以提升領事人員的經貿素養，也成立了「國際合作及經濟事務司」，但頂層設計還是較為欠缺。當日本首相岸田文雄在1月13日指出：美國重返CPTPP至關重要，而台灣又想加入並期待美國協助時，李淳擔任政次剛好可彌補其中之不足。藍營批評這次內閣改組沒亮點，難道是戴了有色眼鏡？ 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+記者陳怡潔／台北報導【 01/31 09:45 發稿 ｜ 17:02 更新：新增逢甲大學及許淑華最新說法 】▲許淑華學位保住了！逢甲大學證實碩士論文修正後通過審核。南投縣長許淑華選前遭檢舉碩士論文涉嫌抄襲，去年10月遭逢甲大學審查認定「不當引述」，須在這學期結束前修正論文，送學校備查。逢甲大學日前指出，這學期1月31日結束，屆時若未收到修正論文，將依規定撤銷經營管理學院碩士學位。而今日就是最後期限。逢甲大學表示，1月13日已收到許淑華送交的修正論文，依相關規定進行論文原創性比對等論文審查程序確認，許淑華修正論文符合學校學倫會規定，論文通過審核，確定保住碩士學位。許淑華於2009年完成的碩士論文遭檢舉，有20幾頁和時任南投市公所職員謝百傑的研究報告有相同之處，逢甲大學學倫會經過4次會議審查，認定其論文有「不當引述」，但未達到「違反學術倫理情節重大」的程度，因此要求在今年1月31日前，完成學位論文修正，並送交學校備查，再由經營管理學院召開審查。南投縣長許淑華表示，目前尚未收到母校通知，但她在送出修正碩士論文前，就對自己的論文很有信心，相信其論文主體性跟內容都沒有問題，她也在當選上任後，立刻按照校方規定進行資料補正，而結果出爐果然也一如她的預期。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+政治中心／綜合報導新任行政院長陳建仁今（31）日正式上任，不過國民黨批陳建仁從中研院借調是留職停薪，中廣董事長趙少康竟轟陳建仁「戀棧愛錢」。對此，台灣基進桃園黨部政策顧問藍士博在臉書上貼出「超級比一比」圖卡，拿陳建仁及前總統馬英九比較，指出陳建仁卸任副總統後，主動放棄禮遇，為國庫省下2300萬元，反觀馬英九卸任總統後每年從國庫領走1000萬至800萬元，還唱衰台灣。▲藍士博貼出一圖曝陳建仁「替國庫省2300萬」，酸馬英九每年享近1千萬還唱衰台灣。看更多新聞》正式接任閣揆 陳建仁自比牧羊人：要善體民意 確實了解民眾需要藍士博表示，陳建仁卸任副總統後，主動放棄全部禮遇，4年為國庫省下至少2300萬，卸任後的貢獻是恢復研究員身分，繼續為台灣科技付出。至於馬英九身為卸任總統，選前承諾「633政策」失敗就要捐薪水，但從沒實現過，現在更是全台灣唯一享用卸任元首禮遇的人，每年從國庫領走1000萬至800萬元，卸任後貢獻則是每天罵台灣、唱衰台灣。藍士博說，這樣攤開來一看，誰是為台灣服務的人，誰又是享用台灣納稅錢的人，應該很清楚了吧。作家苦苓也在臉書上指出，一個人主動放棄卸任後的禮遇，替國庫省了2300萬；之後他為了用另一種方式奉獻社會，從月薪近50萬的工作，換到只有30多萬、而且更辛苦的工作。像這樣的人，如果還有人說他「貪財」的話，那只有兩種可能：第一，這個人被仇恨蒙蔽了眼睛；第二，「貪財」兩個字其實反映了他自己。看更多新聞》接任黨主席第一仗！賴清德下動員令 黨副秘帶隊進駐南投助蔡培慧三立新聞網三立新聞網
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+政治中心／綜合報導▲台灣智庫策略長王義川表示「借調期間，你領不到原來的薪水」。新任行政院長陳建仁今（31）日正式上任，不過國民黨卻質疑陳建仁未放棄中研院高薪，而是以借調方式處理，中廣董事長趙少康更轟陳建仁「戀棧愛錢」。台灣智庫策略長王義川今日在三立新聞政論節目《新台灣加油》談國民黨攻擊陳建仁借調，他指出「借調期間領不到原來的薪水」。主持人許貴雅指出，講到借調馬英九當初也是在教職政大法律系教書，然後借調變成法務部的部長。王義川表示，「被借調回來之後，人家不一定要用你，那有些學校覺得這個人被借調與有榮焉，而且有些學校會要求說不要辭職，拜託不要辭職，你讓我們借調，因為你的名字掛在我們這裡是光榮的事情。」王義川分享自己以前去當台中市交通局長時，當時也在大學教書，自己也是用借調，「對我們那種私立學校來說，有一個教授被政府借調去那是多光榮的事情」。王義川也強調，「借調期間，領不到原來的薪水。」王義川解釋，陳建仁那個缺，不是去跟人家佔位子，他那是特聘研究員，因為他的成就，中研院希望有陳建仁在中研院裡頭，對中研院是很大的加分，在國際的地位上也是。針對陳建仁的論文發表於生物醫學方面，排名都是台灣第一名，學術成就優秀，王義川表示，「陳建仁是這個台灣排名第一，全世界醫學專家排300多名，這種這麼優秀的人才，中研院當然不希望你辭職，當然希望你是借調，對中研院來說也是一個非常光榮的事情。」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+政治中心／蔣季容報導▲林右昌將上任內政部長。（圖／翻攝自林右昌臉書）新內閣今（31）日上任，準內政部長林右昌凌晨在臉書表示，疫情3年雖然台灣總體經濟表現亮眼，但實際上很多中小企業損失慘重，活得很辛苦，其中不乏民進黨長年支持者。林右昌認為，疫情讓貧富差距變大，情緒的累積讓所有不滿的問題都被放大，這是民進黨去年底敗選，最重要的政經與社會因素。林右昌指出，當了8年基隆市長，就是傾聽老百姓，貼近民生，三句不離柴米油鹽醬醋茶。雖然他卸任市長了，但這一個月來最關心的一件事情，還是中、小、微型企業行號的疫後振興問題。林右昌說道，疫情3年，台灣的國家總體經濟表現非常非常亮眼，履創新高成就傲視全球。但總體經濟表現好，是因為航運與資通訊電子等進出口產業大幅成長，實際上我們週邊有很多中、小、微型企業行號受傷損失慘重，重傷、倒閉或歇停業的不計其數！許多夥計兼老闆的小企業主因為抵抗疫情最後搞到倒閉歇業，不僅把數十年積累的家當賠光，還因此背上負債，現在生活得很辛苦。看更多新聞》開2年餐廳無預警收攤！曾心梅認賠300萬吐「煎熬心聲」 副業現況曝光林右昌表示，尤其在媒體報導經濟成長率多少，某大企業賺了多少錢、某公司年終獎金50個月優於去年40個月時，只會讓這些受創的中小企業主更加無奈與氣憤，讓因疫情而失業被迫轉業的勞工朋友們產生更強烈的相對剝奪感。其中很多是年輕朋友，這不僅是經濟問題，也產生社會階層磨擦，衍生出社會問題。林右昌認為，這些小企業主有很多都是民進黨長年的支持者，這些年輕朋友很多過去也都投給了小英總統。但3年疫情讓貧富差距變大，讓社會相對剝奪感變大，情緒的累積讓所有不滿的問題都被放大，這才是民進黨去年底敗選，最重要的政經與社會因素。「我們不能讓受災的中小企業主（特別是內需與服務產業）獨自面對問題與困境，我們要幫忙解決問題並創造希望！」林右昌強調，在疫情即將全面解封復甦的時刻，政府會盡力集中資源大力幫忙，讓他們能夠趁機搭上經濟復甦列車，擺脫困境重新復業、振興起來，把疫情3年損失再賺回來。林右昌說，這個時機點很重要，也是民進黨重新建構社會支持基礎的關鍵！否則，再漂亮的經濟數字，對人民依舊無感。最後喊話「接下來就一起加油，努力來解決人民的問題吧！」看更多新聞》台6人赴日輪流吃1碗拉麵挨轟！「日本人的歐吉桑」揭背後關鍵原因
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+政治中心／林昀萱報導▲余正煌控告林智堅違反著作權法，被爆遭算帳轉調內勤冷凍且考績乙等，調查局回應了。（圖／翻攝自林智堅臉書）新竹市前市長林智堅碩士論文抄襲一案，被視為民進黨九合一敗選的原因之一；調查局新竹市調查站調查官余正煌自訴林智堅違反著作權法，被爆料他自昨（31）日被轉調內勤且去年「考績為乙」形同秋後算帳，對此調查局深夜也回應了。九合一大選時，林智堅在台大國發所碩士論文爆出涉嫌抄襲學長余正煌，遭余正煌控告侵害著作權，最終台大認定林智堅涉抄襲、撤銷其碩士學位，林智堅也黯然退出桃園市長選舉。不過余正煌被爆出事後不僅轉調內勤冷凍，且去年的考績被打「乙等」。對此，調查局長王俊力昨日深夜發聲澄清，余正煌確實轉調內勤，但他的考績是甲等。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+政治中心／林昀萱報導▲2024賴清德可能搭擋蕭美琴出征總統大選，最新網路民調結果跌破眼睛。（圖／翻攝自臉書）九合一大選後，各政黨積極布局2024總統大選，究竟由誰出戰也受到關注。民進黨目前以副總統賴清德呼聲最高，在黨內定於一尊，也傳出駐美代表蕭美琴是最有可能的副手人選。Youtube頻道《桃園孫先生》發起網路投票，有超過60％人認為「德美配」並非民進黨2024最強組合，並紛紛點名應該搭擋人選。Youtube頻道《桃園孫先生》在31日以「政論家黃暐瀚預言賴清德會搭配蕭美琴選2024正副總統」為題發起網路投票詢問民眾看法，總共列出四個選項。截至今（1）日上午7時，有61%人認為「賴清德、蕭美琴不是民進黨2024最強組合」；認為兩人搭擋是最佳組合的只有19％；沒意見17％；其他有3％。網友紛紛留言提出看法，「支持賴，蕭配，最佳組合，讚」、「賴清德配陳建仁或是蘇貞昌最佳組合」、「如果蕭美琴不是最強組合，那是誰呢？」「唯一支持蘇貞昌、林智堅」、「蕭賴不同派系，而且比蕭資深的很多」、「賴清德搭誰都沒差，我是一定不會選賴清德，但賴清德會選上」，另外也有人點名賴清德應該搭配陳菊、唐鳳，討論相當熱烈。◆《桃園孫先生》發起投票網址：https://reurl.cc/NGVqoQ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+政治中心／藍詩孟報導▲陳建仁（右）從蘇貞昌（左）手中接下行政院長一職。（圖／總統府提供）民進黨去年九合一大選失利，蔡英文請辭黨主席，交由賴清德接棒，內閣也進行改組調整，由前副總統陳建仁、前桃園市長鄭文燦出任正副行政院長職位，希望能重新佈局2024。據《鏡周刊》報導，目前副總統賴清德也開始加入每週三固定舉行的「國安首長早餐會」，座位安排更因賴清德的加入出現更動，形成更緊密的「府院黨新鐵三角」。蘇貞昌農曆年前宣布請辭，開工後陳建仁正式接任閣揆大位，民進黨重心也出現轉變。過去蔡英文每週固定舉行的國安早餐會，原先都是由時任行政院長蘇貞昌及視議題變動的多位官員共同與會，商討相關施政措施；現在閣揆位置改由陳建仁接棒，據《鏡周刊》報導，賴清德選後也同樣被蔡英文邀請一起參加固定的國安早餐會。▲蔡英文、陳建仁、蔡英文形成新的「府院黨鐵三角」。（圖／蔡競總提供）週刊指出，過去與會官員的座位分布在長桌兩側，由蔡英文和蘇貞昌帶頭坐在中間短側的位置；現在賴清德、陳建仁加入後，座位調整成3人共同坐在長桌靠近中間的位子，一同和官員商討施政、國防、外交等大事，形成新的「府院黨鐵三角」，關係也更加緊密。事實上，蔡英文任期做最後倒數，交棒給賴清德的趨勢也愈發明顯；蔡英文不只曾公開稱讚賴清德是「合適的接班人」，面對2024賴清德是否出戰，綠營也沒有否認。而賴清德近年來擔任副總統，也在任職期間接觸了各大醫師、律師、建築師等產業工會，更和獅子會、扶輪社等社團都有往來，積極拓展人脈，不難看出是在爭取2024選票。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+政治中心／綜合報導陳建仁「溫暖堅韌」內閣今（31）日正式上任，但國民黨卻砲聲隆隆，緊咬陳建仁抄襲、戀棧、愛錢……等鬥臭十八招傾巢而出！狂打「黑仁」戰術。資深媒體人鍾年晃就奉勸國民黨，雖然不管是誰組閣，藍營都會罵，但要罵也要有點水準，要對得起自己的選民，如果再繼續亂罵下去只會「自取其辱」。鍾年晃在參與三立新聞政論節目《前進新台灣》時表示，國民黨現在主打陳建仁論文涉抄，但當時台大學倫會已經表示，陳建仁在內的共同作者們都沒有責任。而且2015年總統大選前，蔡正元與邱毅「正毅兄弟」已經扯了「抄襲案」一次，現在王鴻薇又「冷飯熱炒」，還說是「核彈級醜聞」，鍾年晃想反問王鴻薇：「Google會很難嗎？」他也一步分析，國民黨現在所採取的戰術，陳建仁現在就像一個人走在暗巷裡，然後突然有很多歹徒蓋布袋圍毆他，等到把布袋拿開之後，這些人一哄而散，根本不知道是誰打他。看更多新聞》獨家／潘孟安不入閣！出書自比「鋼鐵人」挺賴清德 從政心路歷程曝光政治評論員李正皓也向國民黨喊話，不要去懷疑中研院終身院士的學術成就，「這件事是很荒唐的」！因為中研院的終身院士，就是國家學術的「定海神針」，而且舉凡各國都是。而且陳建仁直到2022年，都還是台灣醫學領域排名第一的科學家，他認為國民黨的質疑根本就是「越級打怪」，他也勸藍營要見好就收，「不然最後貽笑大方的會是你們。」民進黨立委洪申翰也笑說，國民黨質疑陳建仁院長的學術成就，根本就是「拿頭去撞花崗岩」。但他也分析，國民黨現在攻擊的邏輯就像是「膝反射」，無論如何他都要提出質疑，現在先質疑「論文與薪水」，如果這兩件是都不能質疑時，他打趣的說：「說不定之後會質疑陳院長頭髮太白。」看更多新聞》張斯綱宣布「爭取2024立委提名」！曝政見：進入立院提案廢NCC
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+記者高逸帆／台北報導▲王金平認為，國民黨現在談誰都不是時候（圖／記者高逸帆攝影）國民黨有志參選2024總統人選眾多，屢屢被點名的包括新北市長侯友宜、國民黨主席朱立倫，以及退黨的鴻海集團創辦人郭台銘。前立法院長王金平今（31）日表示，現在談誰都不是時候。王金平今出席「民主國會卅年特展」，並接受媒體聯訪。對於侯友宜選總統事宜，王說，「現在談誰，我想都不是時候。」至於是否有與郭台銘見面，勸郭回國民黨，王都一律回「沒有」，並說從過年到現在都沒見到。針對黨內總統初選機制，王金平說，朱立倫一定有美好的提名作業出來；至於朱再參選？王則說，看提名辦法，依此處理。王金平表示，被動也要有被動的氣氛和形式，形勢所趨也沒有人反應過敵意，所以一切順其自然。而侯友宜是否為形勢所趨，他則無法評論。王金平指出，每個人都是國民黨陣營裡面適當人選，選舉當然要看看整個情勢對國民黨是有利不利，看起來，對國民黨來說有有利的地方。
 </t>
   </si>
 </sst>

--- a/setn_data.xlsx
+++ b/setn_data.xlsx
@@ -1,171 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>細解陳建仁內閣　學者：他讓人較為意外</t>
-  </si>
-  <si>
-    <t>許淑華學位保住了！逢甲證實論文通過審核</t>
-  </si>
-  <si>
-    <t>超級比一比！他曝陳建仁替國庫省2300萬</t>
-  </si>
-  <si>
-    <t>陳建仁借調當閣揆　藍營流彈掃到自家人？</t>
-  </si>
-  <si>
-    <t>林右昌今任內政部長　深夜點綠營敗選關鍵</t>
-  </si>
-  <si>
-    <t>余正煌調內勤「考績乙等」　調查局回應了</t>
-  </si>
-  <si>
-    <t>賴清德搭蕭美琴勝率高？最新民調結果驚人</t>
-  </si>
-  <si>
-    <t>邀賴清德加入國安晨會　座位安排藏玄機！</t>
-  </si>
-  <si>
-    <t>藍營18招想黑陳建仁？綠委笑：頭撞花崗岩</t>
-  </si>
-  <si>
-    <t>侯友宜郭台銘選總統？王金平：都不是時候</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1245792</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1245302</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1245582</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1245680</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1245249</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1245743</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1245770</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1245786</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1245650</t>
-  </si>
-  <si>
-    <t>https://www.setn.com/News.aspx?NewsID=1245346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-記者李鴻典／台北報導▲行政院長陳建仁正式上任。（圖／行政院提供)陳建仁內閣接力上陣，連日引發討論，學者范世平寫道，「新內閣承先啟後，中生代接棒向前」。范世平說，當蘇貞昌在19日於總預算通過後到立院致謝，外界多認為他已決定請辭，但還是有人放話說他可能在年後「重新復出」，甚至批評他戀棧權力；今天內閣交接，一舉粉碎之前的流言，他留下完美的謝幕身影。在蔡英文於春節期間的殷殷力勸下，「暖男」陳建仁終於答應擔任閣揆，他絕對沒有一絲的政治盤算與權力企圖，而是為了台灣，為了民進黨。賴清德主持這場交接典禮，他高度肯定蘇揆與大仁哥，還是全程致詞不看稿的充分展現自信。范世平指出，府、院、黨凸顯了團結一致的氛圍，也為明年1月的總統與立委大選預作準備，更讓民進黨在去年11月26日的縣市長選舉慘敗後重新恢復了元氣。「台灣民意基金會」27日公佈的最新民調，台灣人的政黨支持傾向中，有26.1％支持民進黨，21.5％支持國民黨，20.3％支持民眾黨。范世平進一步分析，與去年12月相比，民進黨的支持度小幅增加了1.4%（當時是24.7%），國民黨則下滑了3.6%（當時是25.1%），這已超過誤差範圍，民眾黨增加了2.6%（當時是17.7%）；而去年12月國民黨的支持度因為11月選舉大勝而狂飆了6.5%，一舉超越長期為最受歡迎政黨的民進黨。范世平還說，今年1月民進黨又重回第一，因為去年12月賴清德舉辦了20場「向黨員報告」說明會，並要台南市長黃偉哲與六位立委向市民道歉，使得外界覺得民進黨有虛心檢討的決心 ；加上國民黨讓王鴻薇剛當選市議員就「落跑」選立委，林奕華不辭立委卻就職台北市副市長，一連串的傲慢態度讓民眾反感。所以民進黨只要真心誠意的反省改進，民眾就不吝於給予正面反應。新就任內政部長林右昌發出的「千字文」，點出了去年縣市長選舉大敗的原因，就是疫情對中小企業的確產生嚴重衝擊，與亮麗的數字形成反差。這次內閣改組，凸顯了兩個特點，一個就是中生代的獨當一面，許多不到55歲的「野百合學運世代」正式接班。范世平表示，包括行政院副院長鄭文燦、林右昌、僑委會委員長徐佳青與副委員長阮昭雄、文化部長史哲、國安局長蔡明彥、行政院發言人陳宗彥、陸委會副主委梁文傑都是，特別是林右昌與梁文傑都只有51歲。另一個特質是女性閣員增加，特別是海洋委員會主委過去是軍人或男性擔任，這次換上管碧玲，相信會有另類的思維；至於原子能委員會屬於理工領域，過去的主委也多為男性，這次則由張靜文擔任。讓人較為意外的是國安局長蔡明彥，國安局長長期由軍職上將擔任，所以就職時多為60歲以上，即便是文人身分的陳明通也是66歲任職，蔡顯然較為年輕。而蔡為英國博士，又擔任駐歐盟代表與比利時大使，對歐洲相當了解。近年來台歐關係大幅提升，未來的一年勢必有更多突破；捷克新當選總統帕維爾昨天與蔡英文通上電話，並期待與蔡見面；2021年在中國的強烈反彈下，我國在立陶宛成立了「台灣代表處」。而這也凸顯蔡英文希望國安局能走向文人領導與專業化的道路。范世平也說，另一讓人矚目之處就是中華經濟研究院WTO中心副執行長李淳擔任外交部政務次長，他非出身國際關係領域，但事實上台灣對外最強的項目就是經貿。雖然外交部近年來透過更改特考科目與強化在職訓練以提升領事人員的經貿素養，也成立了「國際合作及經濟事務司」，但頂層設計還是較為欠缺。當日本首相岸田文雄在1月13日指出：美國重返CPTPP至關重要，而台灣又想加入並期待美國協助時，李淳擔任政次剛好可彌補其中之不足。藍營批評這次內閣改組沒亮點，難道是戴了有色眼鏡？ 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-記者陳怡潔／台北報導【 01/31 09:45 發稿 ｜ 17:02 更新：新增逢甲大學及許淑華最新說法 】▲許淑華學位保住了！逢甲大學證實碩士論文修正後通過審核。南投縣長許淑華選前遭檢舉碩士論文涉嫌抄襲，去年10月遭逢甲大學審查認定「不當引述」，須在這學期結束前修正論文，送學校備查。逢甲大學日前指出，這學期1月31日結束，屆時若未收到修正論文，將依規定撤銷經營管理學院碩士學位。而今日就是最後期限。逢甲大學表示，1月13日已收到許淑華送交的修正論文，依相關規定進行論文原創性比對等論文審查程序確認，許淑華修正論文符合學校學倫會規定，論文通過審核，確定保住碩士學位。許淑華於2009年完成的碩士論文遭檢舉，有20幾頁和時任南投市公所職員謝百傑的研究報告有相同之處，逢甲大學學倫會經過4次會議審查，認定其論文有「不當引述」，但未達到「違反學術倫理情節重大」的程度，因此要求在今年1月31日前，完成學位論文修正，並送交學校備查，再由經營管理學院召開審查。南投縣長許淑華表示，目前尚未收到母校通知，但她在送出修正碩士論文前，就對自己的論文很有信心，相信其論文主體性跟內容都沒有問題，她也在當選上任後，立刻按照校方規定進行資料補正，而結果出爐果然也一如她的預期。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／綜合報導新任行政院長陳建仁今（31）日正式上任，不過國民黨批陳建仁從中研院借調是留職停薪，中廣董事長趙少康竟轟陳建仁「戀棧愛錢」。對此，台灣基進桃園黨部政策顧問藍士博在臉書上貼出「超級比一比」圖卡，拿陳建仁及前總統馬英九比較，指出陳建仁卸任副總統後，主動放棄禮遇，為國庫省下2300萬元，反觀馬英九卸任總統後每年從國庫領走1000萬至800萬元，還唱衰台灣。▲藍士博貼出一圖曝陳建仁「替國庫省2300萬」，酸馬英九每年享近1千萬還唱衰台灣。看更多新聞》正式接任閣揆 陳建仁自比牧羊人：要善體民意 確實了解民眾需要藍士博表示，陳建仁卸任副總統後，主動放棄全部禮遇，4年為國庫省下至少2300萬，卸任後的貢獻是恢復研究員身分，繼續為台灣科技付出。至於馬英九身為卸任總統，選前承諾「633政策」失敗就要捐薪水，但從沒實現過，現在更是全台灣唯一享用卸任元首禮遇的人，每年從國庫領走1000萬至800萬元，卸任後貢獻則是每天罵台灣、唱衰台灣。藍士博說，這樣攤開來一看，誰是為台灣服務的人，誰又是享用台灣納稅錢的人，應該很清楚了吧。作家苦苓也在臉書上指出，一個人主動放棄卸任後的禮遇，替國庫省了2300萬；之後他為了用另一種方式奉獻社會，從月薪近50萬的工作，換到只有30多萬、而且更辛苦的工作。像這樣的人，如果還有人說他「貪財」的話，那只有兩種可能：第一，這個人被仇恨蒙蔽了眼睛；第二，「貪財」兩個字其實反映了他自己。看更多新聞》接任黨主席第一仗！賴清德下動員令 黨副秘帶隊進駐南投助蔡培慧三立新聞網三立新聞網
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／綜合報導▲台灣智庫策略長王義川表示「借調期間，你領不到原來的薪水」。新任行政院長陳建仁今（31）日正式上任，不過國民黨卻質疑陳建仁未放棄中研院高薪，而是以借調方式處理，中廣董事長趙少康更轟陳建仁「戀棧愛錢」。台灣智庫策略長王義川今日在三立新聞政論節目《新台灣加油》談國民黨攻擊陳建仁借調，他指出「借調期間領不到原來的薪水」。主持人許貴雅指出，講到借調馬英九當初也是在教職政大法律系教書，然後借調變成法務部的部長。王義川表示，「被借調回來之後，人家不一定要用你，那有些學校覺得這個人被借調與有榮焉，而且有些學校會要求說不要辭職，拜託不要辭職，你讓我們借調，因為你的名字掛在我們這裡是光榮的事情。」王義川分享自己以前去當台中市交通局長時，當時也在大學教書，自己也是用借調，「對我們那種私立學校來說，有一個教授被政府借調去那是多光榮的事情」。王義川也強調，「借調期間，領不到原來的薪水。」王義川解釋，陳建仁那個缺，不是去跟人家佔位子，他那是特聘研究員，因為他的成就，中研院希望有陳建仁在中研院裡頭，對中研院是很大的加分，在國際的地位上也是。針對陳建仁的論文發表於生物醫學方面，排名都是台灣第一名，學術成就優秀，王義川表示，「陳建仁是這個台灣排名第一，全世界醫學專家排300多名，這種這麼優秀的人才，中研院當然不希望你辭職，當然希望你是借調，對中研院來說也是一個非常光榮的事情。」
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／蔣季容報導▲林右昌將上任內政部長。（圖／翻攝自林右昌臉書）新內閣今（31）日上任，準內政部長林右昌凌晨在臉書表示，疫情3年雖然台灣總體經濟表現亮眼，但實際上很多中小企業損失慘重，活得很辛苦，其中不乏民進黨長年支持者。林右昌認為，疫情讓貧富差距變大，情緒的累積讓所有不滿的問題都被放大，這是民進黨去年底敗選，最重要的政經與社會因素。林右昌指出，當了8年基隆市長，就是傾聽老百姓，貼近民生，三句不離柴米油鹽醬醋茶。雖然他卸任市長了，但這一個月來最關心的一件事情，還是中、小、微型企業行號的疫後振興問題。林右昌說道，疫情3年，台灣的國家總體經濟表現非常非常亮眼，履創新高成就傲視全球。但總體經濟表現好，是因為航運與資通訊電子等進出口產業大幅成長，實際上我們週邊有很多中、小、微型企業行號受傷損失慘重，重傷、倒閉或歇停業的不計其數！許多夥計兼老闆的小企業主因為抵抗疫情最後搞到倒閉歇業，不僅把數十年積累的家當賠光，還因此背上負債，現在生活得很辛苦。看更多新聞》開2年餐廳無預警收攤！曾心梅認賠300萬吐「煎熬心聲」 副業現況曝光林右昌表示，尤其在媒體報導經濟成長率多少，某大企業賺了多少錢、某公司年終獎金50個月優於去年40個月時，只會讓這些受創的中小企業主更加無奈與氣憤，讓因疫情而失業被迫轉業的勞工朋友們產生更強烈的相對剝奪感。其中很多是年輕朋友，這不僅是經濟問題，也產生社會階層磨擦，衍生出社會問題。林右昌認為，這些小企業主有很多都是民進黨長年的支持者，這些年輕朋友很多過去也都投給了小英總統。但3年疫情讓貧富差距變大，讓社會相對剝奪感變大，情緒的累積讓所有不滿的問題都被放大，這才是民進黨去年底敗選，最重要的政經與社會因素。「我們不能讓受災的中小企業主（特別是內需與服務產業）獨自面對問題與困境，我們要幫忙解決問題並創造希望！」林右昌強調，在疫情即將全面解封復甦的時刻，政府會盡力集中資源大力幫忙，讓他們能夠趁機搭上經濟復甦列車，擺脫困境重新復業、振興起來，把疫情3年損失再賺回來。林右昌說，這個時機點很重要，也是民進黨重新建構社會支持基礎的關鍵！否則，再漂亮的經濟數字，對人民依舊無感。最後喊話「接下來就一起加油，努力來解決人民的問題吧！」看更多新聞》台6人赴日輪流吃1碗拉麵挨轟！「日本人的歐吉桑」揭背後關鍵原因
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／林昀萱報導▲余正煌控告林智堅違反著作權法，被爆遭算帳轉調內勤冷凍且考績乙等，調查局回應了。（圖／翻攝自林智堅臉書）新竹市前市長林智堅碩士論文抄襲一案，被視為民進黨九合一敗選的原因之一；調查局新竹市調查站調查官余正煌自訴林智堅違反著作權法，被爆料他自昨（31）日被轉調內勤且去年「考績為乙」形同秋後算帳，對此調查局深夜也回應了。九合一大選時，林智堅在台大國發所碩士論文爆出涉嫌抄襲學長余正煌，遭余正煌控告侵害著作權，最終台大認定林智堅涉抄襲、撤銷其碩士學位，林智堅也黯然退出桃園市長選舉。不過余正煌被爆出事後不僅轉調內勤冷凍，且去年的考績被打「乙等」。對此，調查局長王俊力昨日深夜發聲澄清，余正煌確實轉調內勤，但他的考績是甲等。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／林昀萱報導▲2024賴清德可能搭擋蕭美琴出征總統大選，最新網路民調結果跌破眼睛。（圖／翻攝自臉書）九合一大選後，各政黨積極布局2024總統大選，究竟由誰出戰也受到關注。民進黨目前以副總統賴清德呼聲最高，在黨內定於一尊，也傳出駐美代表蕭美琴是最有可能的副手人選。Youtube頻道《桃園孫先生》發起網路投票，有超過60％人認為「德美配」並非民進黨2024最強組合，並紛紛點名應該搭擋人選。Youtube頻道《桃園孫先生》在31日以「政論家黃暐瀚預言賴清德會搭配蕭美琴選2024正副總統」為題發起網路投票詢問民眾看法，總共列出四個選項。截至今（1）日上午7時，有61%人認為「賴清德、蕭美琴不是民進黨2024最強組合」；認為兩人搭擋是最佳組合的只有19％；沒意見17％；其他有3％。網友紛紛留言提出看法，「支持賴，蕭配，最佳組合，讚」、「賴清德配陳建仁或是蘇貞昌最佳組合」、「如果蕭美琴不是最強組合，那是誰呢？」「唯一支持蘇貞昌、林智堅」、「蕭賴不同派系，而且比蕭資深的很多」、「賴清德搭誰都沒差，我是一定不會選賴清德，但賴清德會選上」，另外也有人點名賴清德應該搭配陳菊、唐鳳，討論相當熱烈。◆《桃園孫先生》發起投票網址：https://reurl.cc/NGVqoQ
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／藍詩孟報導▲陳建仁（右）從蘇貞昌（左）手中接下行政院長一職。（圖／總統府提供）民進黨去年九合一大選失利，蔡英文請辭黨主席，交由賴清德接棒，內閣也進行改組調整，由前副總統陳建仁、前桃園市長鄭文燦出任正副行政院長職位，希望能重新佈局2024。據《鏡周刊》報導，目前副總統賴清德也開始加入每週三固定舉行的「國安首長早餐會」，座位安排更因賴清德的加入出現更動，形成更緊密的「府院黨新鐵三角」。蘇貞昌農曆年前宣布請辭，開工後陳建仁正式接任閣揆大位，民進黨重心也出現轉變。過去蔡英文每週固定舉行的國安早餐會，原先都是由時任行政院長蘇貞昌及視議題變動的多位官員共同與會，商討相關施政措施；現在閣揆位置改由陳建仁接棒，據《鏡周刊》報導，賴清德選後也同樣被蔡英文邀請一起參加固定的國安早餐會。▲蔡英文、陳建仁、蔡英文形成新的「府院黨鐵三角」。（圖／蔡競總提供）週刊指出，過去與會官員的座位分布在長桌兩側，由蔡英文和蘇貞昌帶頭坐在中間短側的位置；現在賴清德、陳建仁加入後，座位調整成3人共同坐在長桌靠近中間的位子，一同和官員商討施政、國防、外交等大事，形成新的「府院黨鐵三角」，關係也更加緊密。事實上，蔡英文任期做最後倒數，交棒給賴清德的趨勢也愈發明顯；蔡英文不只曾公開稱讚賴清德是「合適的接班人」，面對2024賴清德是否出戰，綠營也沒有否認。而賴清德近年來擔任副總統，也在任職期間接觸了各大醫師、律師、建築師等產業工會，更和獅子會、扶輪社等社團都有往來，積極拓展人脈，不難看出是在爭取2024選票。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-政治中心／綜合報導陳建仁「溫暖堅韌」內閣今（31）日正式上任，但國民黨卻砲聲隆隆，緊咬陳建仁抄襲、戀棧、愛錢……等鬥臭十八招傾巢而出！狂打「黑仁」戰術。資深媒體人鍾年晃就奉勸國民黨，雖然不管是誰組閣，藍營都會罵，但要罵也要有點水準，要對得起自己的選民，如果再繼續亂罵下去只會「自取其辱」。鍾年晃在參與三立新聞政論節目《前進新台灣》時表示，國民黨現在主打陳建仁論文涉抄，但當時台大學倫會已經表示，陳建仁在內的共同作者們都沒有責任。而且2015年總統大選前，蔡正元與邱毅「正毅兄弟」已經扯了「抄襲案」一次，現在王鴻薇又「冷飯熱炒」，還說是「核彈級醜聞」，鍾年晃想反問王鴻薇：「Google會很難嗎？」他也一步分析，國民黨現在所採取的戰術，陳建仁現在就像一個人走在暗巷裡，然後突然有很多歹徒蓋布袋圍毆他，等到把布袋拿開之後，這些人一哄而散，根本不知道是誰打他。看更多新聞》獨家／潘孟安不入閣！出書自比「鋼鐵人」挺賴清德 從政心路歷程曝光政治評論員李正皓也向國民黨喊話，不要去懷疑中研院終身院士的學術成就，「這件事是很荒唐的」！因為中研院的終身院士，就是國家學術的「定海神針」，而且舉凡各國都是。而且陳建仁直到2022年，都還是台灣醫學領域排名第一的科學家，他認為國民黨的質疑根本就是「越級打怪」，他也勸藍營要見好就收，「不然最後貽笑大方的會是你們。」民進黨立委洪申翰也笑說，國民黨質疑陳建仁院長的學術成就，根本就是「拿頭去撞花崗岩」。但他也分析，國民黨現在攻擊的邏輯就像是「膝反射」，無論如何他都要提出質疑，現在先質疑「論文與薪水」，如果這兩件是都不能質疑時，他打趣的說：「說不定之後會質疑陳院長頭髮太白。」看更多新聞》張斯綱宣布「爭取2024立委提名」！曝政見：進入立院提案廢NCC
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-記者高逸帆／台北報導▲王金平認為，國民黨現在談誰都不是時候（圖／記者高逸帆攝影）國民黨有志參選2024總統人選眾多，屢屢被點名的包括新北市長侯友宜、國民黨主席朱立倫，以及退黨的鴻海集團創辦人郭台銘。前立法院長王金平今（31）日表示，現在談誰都不是時候。王金平今出席「民主國會卅年特展」，並接受媒體聯訪。對於侯友宜選總統事宜，王說，「現在談誰，我想都不是時候。」至於是否有與郭台銘見面，勸郭回國民黨，王都一律回「沒有」，並說從過年到現在都沒見到。針對黨內總統初選機制，王金平說，朱立倫一定有美好的提名作業出來；至於朱再參選？王則說，看提名辦法，依此處理。王金平表示，被動也要有被動的氣氛和形式，形勢所趨也沒有人反應過敵意，所以一切順其自然。而侯友宜是否為形勢所趨，他則無法評論。王金平指出，每個人都是國民黨陣營裡面適當人選，選舉當然要看看整個情勢對國民黨是有利不利，看起來，對國民黨來說有有利的地方。
-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -180,41 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -502,177 +420,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>馬英九訪中「祭祖」！苦苓金句連發嗆爆了</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1272153</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+政治中心／林奇樺報導▲馬英九訪中「祭祖」！苦苓金句連發嗆爆了。（圖／翻攝自鄭知道了臉書）前總統馬英九赴中祭祖，不過先前我國才被挖走了邦交國，但馬英九卻不顧朝野反對聲浪還是執意前往。對此，作家苦苓則是在《鄭知道了》中金句連發，酸馬英九「馬不知臉長」、「露出馬腳」以及「馬耳東風」、「馬失前蹄」。首先「馬不知臉長」，苦苓說，當我國外交生變的時候，國民黨見獵心喜說「太好了，一定是小英飛到貝里斯的時候，他們就給他宣布」，但沒想到蔡英文還沒出訪，我國邦交就生變，馬英九出門前先打一個臉，更酸「因為不知道臉很長，所以多打幾個臉也沒有關係」。▲馬英九出訪中國祭祖。(圖/馬英九辦公室提供)接著是「露出馬腳」，苦苓說，馬英九一開始說是要去祭祖，但接著卻說「彌補政府的失能」，他也嘲諷：「請問你要怎樣彌補？你要跟祖宗告狀，然後說，『你看我們國家一個個都斷了，民進黨很糟糕，你趕快把他弄下來』，是這樣子嗎？還是你要說你去跟中國講，『不然你們還我一個邦交國，好不好』」。苦苓說，其實台灣57.7%的人都反對馬英九到中國去，馬英九為什麼這樣乖，為什麼這樣任人糟蹋？他說，因為馬英九想的是馬習二會，馬英九一輩子想的就是「我要歷史定位」。至於「馬耳東風」，苦苓說，對於馬英九訪中，朱立倫很緊張說「能堅持中華民國的主權」，但過去朱習會時，朱立倫自己就沒有說過一句中華民國了，「所以這些話馬耳東風了，馬英九不會聽在耳裡的」。最後就是「馬失前蹄」，苦苓提到，國民黨老實講很害怕，不是這個訪問本身而已，而是到時候馬英九還會說一些出賣台灣的國格的話，說一些喪權辱國的話，這才是最糟糕的。馬英九訪中「祭祖」！苦苓金句連發嗆爆了▲ 馬英九訪中「祭祖」！苦苓金句連發嗆爆了
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>不甩同袍舔中！退役上將3度堅拒接觸中共</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1272699</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+圖、文／鏡週刊▲苗永慶（左）出身海軍，治軍向來嚴謹，在軍方歷練完整，榮升二級上將，深獲部屬愛戴。（圖／翻攝自中華學術文教基金會官網）檢調發現，有許多退將堅拒與對岸接觸，堅守國共不兩立的原則，包括曾任國防部副參謀總長及海軍總司令的前海軍二級上將苗永慶，當方新生要求夏復翔引薦苗赴中參訪，對話提及：「有了新名單以後，我們協商一下，再做最後確認，另外啊，你再邀請一下苗先生好不好？」 夏復翔為了完成任務，透過前海軍副總司令退役的中將高揚，代為邀約苗永慶赴中，但高聽了隨即回說：「苗永慶不願與中國官方有私下接觸。」拒絕代為邀約，但高則同意受邀赴中。後來，夏再透過管道力邀苗永慶，苗最後乾脆以出國為由，前後三度拒絕赴中，讓中共徹底死了心。▲海軍退役上將苗永慶遭中國鎖定吸收，但他不為所動，堅持不和中共接觸。（圖／翻攝自維基百科）苗永慶出身海軍，深受基層士官兵愛戴，海軍軍官學院內，有棟號稱小白宮的復興館，過去曾是蔣介石行館，苗永慶擔任海軍司令時曾在此植樹，樹前還留了「永流其源」碑文，意指「本校培養一群群德智兼備、忠貞勇敢的男女青年菁英，將源源不絕自雄偉官校大門走出，同為建設新海軍而努力。」從這段話也看得出他對國軍滿懷期待及保衛台海安全的決心。此外，曾赴中的高揚日前向檢調證稱：「活動中應有國台辦的人混在裡面，藉由退將介紹其他人而達到統戰目的。」由於郝一峰見總是同批人赴中，要求夏復翔再找其他退將來訪，甚至對他說：「你現在可以初步物色團隊啦，但是有一點，你要有新人，你不能老面孔。」顯見李鷹、方新生與郝一峰等人絕非單純的商人，而是負有對台統戰、滲透、情蒐及發展組織的中共情治系統人員。【點擊看完整全文】更多鏡週刊報導【全文】48退將捲入羅志明共諜案　呂秀蓮遭鎖定吸收未果【48退將捲共諜4】直擊兩岸「黃埔一家親」　退將獲落地招待爽樣全曝光【48退將捲共諜5】祭祖、抗日紀念同一套路搞統戰　馬英九赴中行程神複製
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>顏寬恒夫婦遭搜索千萬交保　林靜儀說話了</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1272818</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+政治中心／綜合報導▲對於顏寬恒夫婦遭搜索千萬交保，立委林靜儀表示之前在地方沒有特別聽說，並呼籲顏寬恆跟民眾說清楚。前立委顏寬恒去</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>擊斃狒狒！張善政向獵人提4疑問：誰委託</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1272354</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+記者林意筑／綜合報導【 3/28 12:41 發稿 ｜ 13:53 更新：新增影音 】▲東非狒狒中槍身亡。（圖／翻攝畫面）東非狒狒經歷17日的逃亡後，最終27日下午在桃園楊梅區一處民宅內被捕獲，不過卻遭到獵槍射擊不幸受傷，受到槍傷的狒狒在送往六福村時傷重不治，引發社會各界熱議。對此，桃園市長張善政今（28）日表示遺憾、難過，並對林姓獵人提出「4疑問」。▲狒狒屍體將送北市動物園檢驗。（圖／中央社）對於狒狒的死亡，張善政表示，桃園農業局近日花了很多時間在圍堵，但狒狒卻被不明來路的獵人用普通的子彈擊斃，這個讓我們非常的難過、遺憾，更是懊惱。至於是誰聘請獵人、為何使用普通子彈，都將交由警察局調查釐清。▲農業局專門委員第一時間忙著合照挨轟。（圖／翻攝畫面）另外，昨日農業局專門委員盧紀燁捕獲狒狒第一時間忙著合照，遭批冷血，對此張善政回應，人員對狒狒沒有展現尊敬生命、愛心的部分，桃園市政府及農業局將會努力的檢討、努力的改進，希望將來不要再犯，至於懲處內容我們內部會開會來檢討。張善政也說明，圍捕到狒狒時發現牠躺在地上，因此農業局人員以為是麻醉劑已經發作，並不知道開的是真槍，也不知道狒狒已經幾乎死亡，當時僅認為是麻醉劑的作用，所以狒狒才沒有反應。▲林姓獵人合法使用獵槍射殺狒狒。（圖／翻攝畫面）張善政也說，目前警方仍在與林姓獵人訪談，而這槍顯然是林姓獵人開的，不過他「為何開槍？」、「為何在桃園境內開槍？」、「是誰委託的？」及「為何使用普通子彈？而非麻醉劑」都將請警方持續釐清。同時，林姓獵人已向警察說明，不是桃園市政府的農業局委託他來做這個事情。
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>于北辰批馬英九：投你兩次總統，捶心肝</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1272579</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+政治中心／蕭宥宸報導▲馬英九訪共行程不斷引發爭議。（圖／馬辦提供）「馬先生」前總統馬英九訪中被共方矮化，不準同行記者稱馬「前總統」，只能說「馬先生」。對此，桃園市議員于北辰於三立政論節目《鄭知道了》中感嘆，馬英九2次競選總統「我都投他」，但如今不用中共統戰部門幫忙消音，馬英九就自動退縮、並要大家稱呼自己是「馬先生」。于北辰認為，馬英九大可以勇敢地說出來，反正中國統戰部門也會將關鍵字消音，「至少我說了，這表示勇氣，這表示你的決心」。且即使說了被消音，「你回來可以跟大家講說，我講了 ，那個逼，就是我講的中華民國，他就給我消音了」。或許能爭取到更多人民的認同，「而且你不會讓當時，投你兩次總統的人，後悔、捶心肝」。▼于北辰批評馬英九「總統」2字說不出口。（影片來自YouTube－鄭知道了頻道，若遭移除請見諒）
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>孫曉雅認台灣牛肉麵鐵粉　曝學煮圖吐1事</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1272744</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+政治中心／陳慈鈴報導▲孫曉雅表示，「我是台灣牛肉麵的忠實粉絲」，近日還學習如何煮。（圖／翻攝自美國在台協會 AIT臉書）台灣的牛肉麵遠近馳名，不僅受到台灣人喜愛，就連外國人也愛這一味。對此，美國在台協會AIT處長孫曉雅透露，「我是台灣牛肉麵的忠實粉絲」，最近更幸運的，有機會向國立高雄餐旅大學的陳正忠主廚學習，如何煮出一道美味的牛肉麵。孫曉雅28日下午在「美國在台協會 AIT」臉書表示，「相信許多人都知道，我是台灣牛肉麵的忠實粉絲」，提到台灣的牛肉麵是世界有名的，成功收服了各國旅客的心。孫曉雅透露，她有幸向國立高雄餐旅大學的陳正忠主廚學習如何煮牛肉麵，而且使用美味的美國牛更增添風味！「沒有什麼比美食更能凝聚美國和台灣的人民和豐富的文化了！」看更多新聞》木村拓哉爆婚變後露面！「滿頭白髮」近照曝光 陷髮際線危機顯老態▲身為台灣牛肉麵鐵粉的孫曉雅直言，沒什麼比美食更能凝聚美台。（圖／翻攝自美國在台協會 AIT臉書）文末也貼出9張照片，展示了學習牛肉麵的過程以及成果。從照片中可以看到，孫曉雅的裝扮相當到位，無論是切肉，還是炒鍋都架式十足，成品照看上去也是色香味俱全，滿滿的牛肉塊，搭配著煮好的麵條，再灑上一些蔥花、配上一些青菜，看得讓人口水直流。▲孫曉雅學煮台灣牛肉麵畫面曝光，網友大讚有大廚架式。（圖／翻攝自美國在台協會 AIT臉書）貼文曝光後，網友紛紛表示，「處長有大廚的架式喔！」、「美國牛以穀物飼養，甜美多汁無草腥味。台灣牛肉麵用美國牛，真是絕配」、「美麗的處長，請問AIT有考慮開設牛肉麵分館嗎？看起來超美味的好想吃」、「要說義大利有義大利麵，台灣就牛肉麵莫屬了」、「看得我餓了」。看更多新聞》辦完好市多卡拿到「黑金隱藏版」他困惑！超狂用途曝光
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>蔡英文將出訪！美國臨時喊卡總統過境簡報</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1272709</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+政治中心／黃韻璇報導總統蔡英文今（29）日將出訪我國中美洲邦交國貝里斯及瓜地馬拉，並於去程過境美國紐約，回程過境洛杉磯，共10天9夜。然而原定要發布的「台灣總統過境美國」簡報會，卻在舉行前突然取消。蔡英文總統此行預計於29日中午12時30分啟程出訪，並將在機場發表談話。30日過境紐約，並待2夜；4月1日抵達瓜地馬拉；3日抵達貝里斯；5日則過境洛杉磯，也是待2夜，預計7日返抵國門。其中，行程是否將會見到美國眾議院議長麥卡錫（Kevin McCarthy）也備受關注，外媒甚至透露，蔡英文在30日於紐約將會參與華府智庫「哈德遜研究所」的演說，不過，總統府對於美國行程保密到家。▲蔡英文今睽違3年出訪。（資料照／總統府提供）然而值得關注的是，據《聯合報》報導，就在蔡英文總統即將出發前夕，美國國務院亞太助卿康達（Daniel Kritenbrink），原本要舉行的「台灣總統過境美國」簡報，卻在舉行前半小時，分別通知「取消」及「延期」，只提到會在準備好後再宣布新的簡報時間。然而這原本可能是兩國斷交後，中華民國總統歷次過境以來，美國國務院首次有資深官員，將為過境舉行簡報會，但卻在最後一刻喊停，引發關注，不過白宮國安會重申，蔡英文過境美國並不罕見，強調是「非官方過境」，並說美國官員沒有碰面計畫。
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>蔡英文睽違3年出訪！將見麥卡錫備受關注</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1272559</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+記者高逸帆／台北報導▲蔡英文今睽違3年出訪。（資料照／總統府提供）總統蔡英文今（29）日將出訪我國中美洲邦交國貝里斯及瓜地馬拉，並於去程過境美國紐約，回程過境洛杉磯，共10天9夜。本次出訪在台灣與宏都拉斯斷交後，除了有鞏固邦誼意味，行程是否將會見到美國眾議院議長麥卡錫（Kevin McCarthy）也備受關注。蔡英文今中午12時30分啟程出訪，並將在機場發表談話。30日過境紐約，並待2夜；4月1日抵達瓜地馬拉；3日抵達貝里斯；5日則過境洛杉磯，也是待2夜，預計7日返抵國門。不過，總統府對於美國行程保密到家。外媒透露，蔡英文在30日於紐約將會參與華府智庫「哈德遜研究所」的演說，並獲頒該智庫所頒發的「全球領導力獎」。至於加州行程，則預計與美國眾議院議長麥卡錫會面。至於瓜地馬拉行程，蔡英文預計將與僑界代表會面，並接受軍禮歡迎，以及與瓜國總統賈麥岱（Alejandro Giammattei）談話，並受勳與國宴款待；此外，抵達貝里斯後，則與該國總理布里仙紐（John Briceño）會談，並將在國會發表演說。總統府發言人林聿禪日前表示，對於此次出訪，蔡英文期許能達成「民主深化」、「共榮發展」兩大目標。她說，深化民主夥伴交流合作，共同維護國際和平穩定，也持續推動互惠共榮的合作計畫，共同拚福利、拚建設、拚經濟。本次訪團人員包括總統府秘書長林佳龍、外交部部長吳釗燮、僑務委員會委員長徐佳青、總統府副秘書長張惇涵、經濟部次長陳正祺、總統府醫療小組召集人陳振文、總統府發言人林聿禪。隨團的立委則有民進黨陳歐珀、陳明文，民眾黨邱臣遠，以及時代力量王婉諭，國民黨選擇不參加。外交部次長俞大㵢強調，總統此次出訪是為彰顯我與瓜地馬拉、貝里斯兩國邦誼友好，展現雙邊合作成果與友邦共創互利共榮之前景，增進總統與受訪國高層之互動及情誼。
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>誰下令殺狒狒？王義川：直接叫這個人滾</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1272619</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+政治中心／蕭宥宸報導▲王義川點名張善政叫盧紀燁出來說明當天現場真相。桃園市流浪多日的狒狒昨（27）日遭捕獲後不治，到底是誰下令要開槍，如今已然變成羅生門，對此，台灣智庫策略長王義川指出，當時想拍照給女兒看的農業局專門委員盧紀燁，職位屬於機要任用，更是現場的指揮官。王義川也向桃園市長張善政喊話，「請他（指盧紀燁）出來說清楚，如果不說清楚，我建議張善政直接叫這個人滾，你做最差的生命教育」。新台灣加油。▲ 新台灣加油。
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>馬英九自稱「前總統」在中國首提中華民國</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1272294</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+記者陳怡潔／台北報導▲馬英九至中山陵揮毫寫下8字「和平奮鬥 振興中華」。（圖／馬英九辦公室提供）前總統馬英九昨天以「祭祖」名義前往中國訪問12天，成為兩岸分治74年來，首位踏上中國的中華民國卸任元首。馬英九今(28)日上午到南京中山陵拜謁國父孫中山，並於參觀完孫中山紀念館後發表談話，自稱「馬英九前總統」，並提及中華民國，呼籲兩岸共同努力，追求和平、避免戰爭，致力振興中華。馬英九今天上午到南京中山陵拜謁國父孫中山，現場揮毫寫下8字「和平奮鬥 振興中華」。將孫中山臨終前在病榻上的遺言「和平、奮鬥、救中國」改寫。馬英九致詞全文：民國112年3月28日馬英九前總統率馬英九基金會同仁與同學敬謁南京中山陵致詞全文 各位同仁、各位同學：國父孫中山先生畢生領導國民革命，推翻滿清，創建民國，到今天已經112年了。回想當時的中國，滿清政府貪污腐敗，積弱不振、飽受列強侵略。從1842年（清道光22年）簽訂「中英南京條約」以來，被迫跟50多國簽訂100多個不平等條約，割地賠款、喪權辱國。而當時中國社會貧富懸殊，文盲處處、法治不彰、社會發展落後，人民無力反抗，國勢危如壘卵，國家看不到希望。幸賴國父1894年（清光緒20年）在美國檀香山成立興中會，登高一呼，提出「驅除韃虜，恢復中華，創立合眾政府」的建國理想，號召海內外志士仁人共襄大業，歷經革命先烈十次流血革命行動，終於在18年後的1911年(清宣統3年)，推翻滿清，終結中國四千多年的君主專政，建立亞洲第一個民主共和國─中華民國。國父對中國史無前例的偉大貢獻，就是改變中國的命運，讓中國走向富強康樂的開始。兩岸人民同屬中華民族，都是炎黃子孫。今天，當年國父念茲在茲的多項建國主張，都已陸續分別在臺灣與大陸實現，這對於兩岸人民與後代子孫的生活與福祉，至關重要。民國14年（1925年）3月12日國父逝世。在遺言中要求國人要「和平、奮鬥、救中國」。98年後的今天，我們馬英九基金會的數十位同仁與同學，從臺灣來到南京中山陵國父靈前致祭，提出「和平奮鬥、振興中華」的目標，深盼兩岸共同努力，追求和平、避免戰爭，致力振興中華。這是兩岸中國人不可迴避的責任，我們一定要努力實現。
+</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/setn_data.xlsx
+++ b/setn_data.xlsx
@@ -456,18 +456,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>馬英九訪中「祭祖」！苦苓金句連發嗆爆了</t>
+          <t>親手埋葬中華民國？他揭馬英九祭文玄機</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272153</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272574</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-政治中心／林奇樺報導▲馬英九訪中「祭祖」！苦苓金句連發嗆爆了。（圖／翻攝自鄭知道了臉書）前總統馬英九赴中祭祖，不過先前我國才被挖走了邦交國，但馬英九卻不顧朝野反對聲浪還是執意前往。對此，作家苦苓則是在《鄭知道了》中金句連發，酸馬英九「馬不知臉長」、「露出馬腳」以及「馬耳東風」、「馬失前蹄」。首先「馬不知臉長」，苦苓說，當我國外交生變的時候，國民黨見獵心喜說「太好了，一定是小英飛到貝里斯的時候，他們就給他宣布」，但沒想到蔡英文還沒出訪，我國邦交就生變，馬英九出門前先打一個臉，更酸「因為不知道臉很長，所以多打幾個臉也沒有關係」。▲馬英九出訪中國祭祖。(圖/馬英九辦公室提供)接著是「露出馬腳」，苦苓說，馬英九一開始說是要去祭祖，但接著卻說「彌補政府的失能」，他也嘲諷：「請問你要怎樣彌補？你要跟祖宗告狀，然後說，『你看我們國家一個個都斷了，民進黨很糟糕，你趕快把他弄下來』，是這樣子嗎？還是你要說你去跟中國講，『不然你們還我一個邦交國，好不好』」。苦苓說，其實台灣57.7%的人都反對馬英九到中國去，馬英九為什麼這樣乖，為什麼這樣任人糟蹋？他說，因為馬英九想的是馬習二會，馬英九一輩子想的就是「我要歷史定位」。至於「馬耳東風」，苦苓說，對於馬英九訪中，朱立倫很緊張說「能堅持中華民國的主權」，但過去朱習會時，朱立倫自己就沒有說過一句中華民國了，「所以這些話馬耳東風了，馬英九不會聽在耳裡的」。最後就是「馬失前蹄」，苦苓提到，國民黨老實講很害怕，不是這個訪問本身而已，而是到時候馬英九還會說一些出賣台灣的國格的話，說一些喪權辱國的話，這才是最糟糕的。馬英九訪中「祭祖」！苦苓金句連發嗆爆了▲ 馬英九訪中「祭祖」！苦苓金句連發嗆爆了
+政治中心／蕭宥宸報導▲李正皓認為馬英九「把中華民國當成歷史故事在講」。前總統馬英九訪中「祭祖」之旅，不僅接機規格大降級！就連隨行記者也被處處設限、還因當地司機迷航導致脫隊！資深媒體人王時齊今（28）日在三立政論節目《前進新台灣》中質疑，這些可能都是預謀，因為從馬英九出發開始，中國就開始「有意識」在每一個環節「羞辱」，因為馬英九作為台灣的前元首，羞辱了他，等於是「羞辱了全台灣」。王時齊感嘆，馬英九竟然對於接待規格，竟然還配合度超高的說「超乎預期、怎麼對我那麼好」。而中方對於馬英九「種種打壓」還不僅如此，王時齊節目中再揭「中國小手段」！她秀出「中評社」報導表示，中評社刊載馬英九在中山陵的落款布條圖片時，把「百十二」裁切掉，圖上只剩下「馬英九」。王時齊直指，中方擺明從大到小的環節都要給馬英九「穿小鞋」，他認為，作為台灣人民看了是「難過、傷心的」，質疑「馬英九是不是不在乎台灣」？另外，馬英九今日大張旗鼓地去謁「中山陵」，但祭文藏蹊蹺？政治評論員李正皓指出，馬英九光是祭文，就跟2014年的陸委會主委王郁琦「差非常的多」。李正皓怒指，馬英九這次最可惡的是，「他把中華民國當成歷史故事在講，不是現在還存在的一個國家」，因為當時王郁琦祭文用「民國紀年」代表中華民國還在，而馬英九「很奇怪」他卻用「癸卯年」，換句話說「中華民國已經沒有往前」；再者馬英九在祭文上署名「馬英九先生率訪問團謹奠」，而王郁琦則用「大陸委員會主任委員」，代表「中華民國官員也持續存在」。李正皓指出，為什麼要一直提到「官銜」，因為這關乎中華民國到底存不存在。比較完祭文，再來比較訪問。李正皓說王郁琦是堂堂正正地提到「中華民國」，但馬英九卻說孫中山領導國民革命，推翻滿清創建民國，到今天已經112年，他指說推翻滿清已經112年，中華民國滅亡沒還不知道！馬又說國父建立亞洲第一個民主共和國「中華民國」。李正皓質疑，馬英九根本是在玩「文字遊戲」！他指出，就算馬英九有講「中華民國」有必要遮遮掩掩？李正皓更批評，馬英九落款寫「百十二」旁邊還加「二零二三」，有人這樣寫的嗎？李正皓嘆，現在馬英九、國民黨對兩岸關係的論述跟堅持，「跟我以前在國民黨是完全不一樣的。」
 </t>
         </is>
       </c>
@@ -489,8 +489,7 @@
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-圖、文／鏡週刊▲苗永慶（左）出身海軍，治軍向來嚴謹，在軍方歷練完整，榮升二級上將，深獲部屬愛戴。（圖／翻攝自中華學術文教基金會官網）檢調發現，有許多退將堅拒與對岸接觸，堅守國共不兩立的原則，包括曾任國防部副參謀總長及海軍總司令的前海軍二級上將苗永慶，當方新生要求夏復翔引薦苗赴中參訪，對話提及：「有了新名單以後，我們協商一下，再做最後確認，另外啊，你再邀請一下苗先生好不好？」 夏復翔為了完成任務，透過前海軍副總司令退役的中將高揚，代為邀約苗永慶赴中，但高聽了隨即回說：「苗永慶不願與中國官方有私下接觸。」拒絕代為邀約，但高則同意受邀赴中。後來，夏再透過管道力邀苗永慶，苗最後乾脆以出國為由，前後三度拒絕赴中，讓中共徹底死了心。▲海軍退役上將苗永慶遭中國鎖定吸收，但他不為所動，堅持不和中共接觸。（圖／翻攝自維基百科）苗永慶出身海軍，深受基層士官兵愛戴，海軍軍官學院內，有棟號稱小白宮的復興館，過去曾是蔣介石行館，苗永慶擔任海軍司令時曾在此植樹，樹前還留了「永流其源」碑文，意指「本校培養一群群德智兼備、忠貞勇敢的男女青年菁英，將源源不絕自雄偉官校大門走出，同為建設新海軍而努力。」從這段話也看得出他對國軍滿懷期待及保衛台海安全的決心。此外，曾赴中的高揚日前向檢調證稱：「活動中應有國台辦的人混在裡面，藉由退將介紹其他人而達到統戰目的。」由於郝一峰見總是同批人赴中，要求夏復翔再找其他退將來訪，甚至對他說：「你現在可以初步物色團隊啦，但是有一點，你要有新人，你不能老面孔。」顯見李鷹、方新生與郝一峰等人絕非單純的商人，而是負有對台統戰、滲透、情蒐及發展組織的中共情治系統人員。【點擊看完整全文】更多鏡週刊報導【全文】48退將捲入羅志明共諜案　呂秀蓮遭鎖定吸收未果【48退將捲共諜4】直擊兩岸「黃埔一家親」　退將獲落地招待爽樣全曝光【48退將捲共諜5】祭祖、抗日紀念同一套路搞統戰　馬英九赴中行程神複製
-</t>
+圖、文／鏡週刊▲苗永慶（左）出身海軍，治軍向來嚴謹，在軍方歷練完整，榮升二級上將，深獲部屬愛戴。（圖／翻攝自中華學術文教基金會官網）檢調發現，有許多退將堅拒與對岸接觸，堅守國共不兩立的原則，包括曾任國防部副參謀總長及海軍總司令的前海軍二級上將苗永慶，當方新生要求夏復翔引薦苗赴中參訪，對話提及：「有了新名單以後，我們協商一下，再做最後確認，另外啊，你再邀請一下苗先生好不好？」 夏復翔為了完成任務，透過前海軍副總司令退役的中將高揚，代為邀約苗永慶赴中，但高聽了隨即回說：「苗永慶不願與中國官方有私下接觸。」拒絕代為邀約，但高則同意受邀赴中。後來，夏再透過管道力邀苗永慶，苗最後乾脆以出國為由，前後三度拒絕赴中，讓中共徹底死了心。▲海軍退役上將苗永慶遭中國鎖定吸收，但他不為所動，堅持不和中共接觸。（圖／翻攝自維基百科）苗永慶出身海軍，深受基層士官兵愛戴，海軍軍官學院內，有棟號稱小白宮的復興館，過去曾是蔣介石行館，苗永慶擔任海軍司令時曾在此植樹，樹前還留了「永流其源」碑文，意指「本校培養一群群德智兼備、忠貞勇敢的男女青年菁英，將源源不絕自雄偉官校大門走出，同為建設新海軍而努力。」從這段話也看得出他對國軍滿懷期待及保衛台海安全的決心。此外，曾赴中的高揚日前向檢調證稱：「活動中應有國台辦的人混在裡面，藉由退將介紹其他人而達到統戰目的。」由於郝一峰見總是同批人赴中，要求夏復翔再找其他退將來訪，甚至對他說：「你現在可以初步物色團隊啦，但是有一點，你要有新人，你不能老面孔。」顯見李鷹、方新生與郝一峰等人絕非單純的商人，而是負有對台統戰、滲透、情蒐及發展組織的中共情治系統人員。【點擊看完整全文】更多鏡週刊報導【全文】48退將捲入羅志明共諜案　呂秀蓮遭鎖定吸收未果【48退將捲共諜4】直擊兩岸「黃埔一家親」　退將獲落地招待爽樣全曝光【48退將捲共諜5】祭</t>
         </is>
       </c>
     </row>
@@ -500,18 +499,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>顏寬恒夫婦遭搜索千萬交保　林靜儀說話了</t>
+          <t>擊斃狒狒！張善政向獵人提4疑問：誰委託</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272818</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272354</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-政治中心／綜合報導▲對於顏寬恒夫婦遭搜索千萬交保，立委林靜儀表示之前在地方沒有特別聽說，並呼籲顏寬恆跟民眾說清楚。前立委顏寬恒去</t>
+記者林意筑／綜合報導【 3/28 12:41 發稿 ｜ 13:53 更新：新增影音 】▲東非狒狒中槍身亡。（圖／翻攝畫面）東非狒狒經歷17日的逃亡後，最終27日下午在桃園楊梅區一處民宅內被捕獲，不過卻遭到獵槍射擊不幸受傷，受到槍傷的狒狒在送往六福村時傷重不治，引發社會各界熱議。對此，桃園市長張善政今（28）日表示遺憾、難過，並對林姓獵人提出「4疑問」。▲狒狒屍體將送北市動物園檢驗。（圖／中央社）對於狒狒的死亡，張善政表示，桃園農業局近日花了很多時間在圍堵，但狒狒卻被不明來路的獵人用普通的子彈擊斃，這個讓我們非常的難過、遺憾，更是懊惱。至於是誰聘請獵人、為何使用普通子彈，都將交由警察局調查釐清。▲農業局專門委員第一時間忙著合照挨轟。（圖／翻攝畫面）另外，昨日農業局專門委員盧紀燁捕獲狒狒第一時間忙著合照，遭批冷血，對此張善政回應，人員對狒狒沒有展現尊敬生命、愛心的部分，桃園市政府及農業局將會努力的檢討、努力的改進，希望將來不要再犯，至於懲處內容我們內部會開會來檢討。張善政也說明，圍捕到狒狒時發現牠躺在地上，因此農業局人員以為是麻醉劑已經發作，並不知道開的是真槍，也不知道狒狒已經幾乎死亡，當時僅認為是麻醉劑的作用，所以狒狒才沒有反應。▲林姓獵人合法使用獵槍射殺狒狒。（圖／翻攝畫面）張善政也說，目前警方仍在與林姓獵人訪談，而這槍顯然是林姓獵人開的，不過他「為何開槍？」、「為何在桃園境內開槍？」、「是誰委託的？」及「為何使用普通子彈？而非麻醉劑」都將請警方持續釐清。同時，林姓獵人已向警察說明，不是桃園市政府的農業局委託他來做這個事情。
+</t>
         </is>
       </c>
     </row>
@@ -521,18 +521,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>擊斃狒狒！張善政向獵人提4疑問：誰委託</t>
+          <t>誰下令殺狒狒？王義川：直接叫這個人滾</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272354</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272619</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-記者林意筑／綜合報導【 3/28 12:41 發稿 ｜ 13:53 更新：新增影音 】▲東非狒狒中槍身亡。（圖／翻攝畫面）東非狒狒經歷17日的逃亡後，最終27日下午在桃園楊梅區一處民宅內被捕獲，不過卻遭到獵槍射擊不幸受傷，受到槍傷的狒狒在送往六福村時傷重不治，引發社會各界熱議。對此，桃園市長張善政今（28）日表示遺憾、難過，並對林姓獵人提出「4疑問」。▲狒狒屍體將送北市動物園檢驗。（圖／中央社）對於狒狒的死亡，張善政表示，桃園農業局近日花了很多時間在圍堵，但狒狒卻被不明來路的獵人用普通的子彈擊斃，這個讓我們非常的難過、遺憾，更是懊惱。至於是誰聘請獵人、為何使用普通子彈，都將交由警察局調查釐清。▲農業局專門委員第一時間忙著合照挨轟。（圖／翻攝畫面）另外，昨日農業局專門委員盧紀燁捕獲狒狒第一時間忙著合照，遭批冷血，對此張善政回應，人員對狒狒沒有展現尊敬生命、愛心的部分，桃園市政府及農業局將會努力的檢討、努力的改進，希望將來不要再犯，至於懲處內容我們內部會開會來檢討。張善政也說明，圍捕到狒狒時發現牠躺在地上，因此農業局人員以為是麻醉劑已經發作，並不知道開的是真槍，也不知道狒狒已經幾乎死亡，當時僅認為是麻醉劑的作用，所以狒狒才沒有反應。▲林姓獵人合法使用獵槍射殺狒狒。（圖／翻攝畫面）張善政也說，目前警方仍在與林姓獵人訪談，而這槍顯然是林姓獵人開的，不過他「為何開槍？」、「為何在桃園境內開槍？」、「是誰委託的？」及「為何使用普通子彈？而非麻醉劑」都將請警方持續釐清。同時，林姓獵人已向警察說明，不是桃園市政府的農業局委託他來做這個事情。
+政治中心／蕭宥宸報導▲王義川點名張善政叫盧紀燁出來說明當天現場真相。桃園市流浪多日的狒狒昨（27）日遭捕獲後不治，到底是誰下令要開槍，如今已然變成羅生門，對此，台灣智庫策略長王義川指出，當時想拍照給女兒看的農業局專門委員盧紀燁，職位屬於機要任用，更是現場的指揮官。王義川也向桃園市長張善政喊話，「請他（指盧紀燁）出來說清楚，如果不說清楚，我建議張善政直接叫這個人滾，你做最差的生命教育」。新台灣加油。▲ 新台灣加油。
 </t>
         </is>
       </c>
@@ -543,18 +543,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>于北辰批馬英九：投你兩次總統，捶心肝</t>
+          <t>抓狒擺拍專委起底　她揭貓膩：又一個余文</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272579</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272665</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-政治中心／蕭宥宸報導▲馬英九訪共行程不斷引發爭議。（圖／馬辦提供）「馬先生」前總統馬英九訪中被共方矮化，不準同行記者稱馬「前總統」，只能說「馬先生」。對此，桃園市議員于北辰於三立政論節目《鄭知道了》中感嘆，馬英九2次競選總統「我都投他」，但如今不用中共統戰部門幫忙消音，馬英九就自動退縮、並要大家稱呼自己是「馬先生」。于北辰認為，馬英九大可以勇敢地說出來，反正中國統戰部門也會將關鍵字消音，「至少我說了，這表示勇氣，這表示你的決心」。且即使說了被消音，「你回來可以跟大家講說，我講了 ，那個逼，就是我講的中華民國，他就給我消音了」。或許能爭取到更多人民的認同，「而且你不會讓當時，投你兩次總統的人，後悔、捶心肝」。▼于北辰批評馬英九「總統」2字說不出口。（影片來自YouTube－鄭知道了頻道，若遭移除請見諒）
+政治中心／林昀萱報導▲桃園市農業局專委盧紀燁捕獲狒狒忙拍照引起抨擊，請辭獲准。余宛如嘆「又一個余文。」（圖／翻攝畫面）東非狒狒經歷17日的逃亡後，27日下午在桃園楊梅區一處民宅內被捕獲，不過卻遭到獵槍射擊受傷、在送往六福村時傷重不治，引發社會各界熱議。其中帶頭的桃園市農業局專委盧紀燁捕獲狒狒後第一時間忙著合照，引發抨擊已在昨日請辭獲准。對此，前立委余宛如直言，「切割一個專委是負什麼政治責任啦？誰下命令叫盧紀燁去的，誰才該負政治責任，又一個余文。」狒狒遭槍擊身亡震驚全台，儘管桃園市農業局澄清抵達時第一時間不知道狒狒受傷，然因捕獲現場的影片因可見帶頭的桃園市農業局專委盧紀燁不斷拍照，不僅邀請阿嬤來拍照，還請人幫拍稱「要給女兒看」等，讓影片流出後，遭各界撻伐。有PTT網友起底盧紀燁身份，發現他大有來頭，不僅曾經獲得「百大青農」，後來又搖身一變成為高學歷的養鷹人。網友指出，張善政由行政院長退下時到花蓮結識盧紀燁，郭台銘當初要選總統張善政也特別帶他到盧紀燁家中拜訪，「後來變成張和韓導搭配要出來選舉，他又變團隊人員。」網友直言：「只能說待得夠久管你是什麼，有位置就是你的。」▲余宛如質疑，切割一個專委是負什麼政治責任啦？誰下命令叫盧紀燁去的、誰才該負政治責任。（圖／翻攝畫面）對於盧紀燁請辭獲准，余宛如昨（28）日在臉書直言，「專委連個政務官都不是，切割一個專委是負什麼政治責任啦？誰下命令叫盧紀燁去的、誰才該負政治責任。」余宛如指出，盧紀燁是市長酬庸的機要人員，掛在資訊科技局內，「號稱自己是科技市長的張善政，不只酬庸亂政，到底懂不懂資訊科技局的業務？竟然指派資科局專委去抓狒狒。真是令前資訊科技局長的我，瞠目結舌。」她批評，「今天還是2023智慧城市展的第一天，專委是沒有正事要做嗎？張市長不是最愛砍酬庸嗎？有市長的軍令狀，難怪「抓狒戰情室」圍捕作業一蹋糊塗，專委只記得拍照作秀，出了事就推諉給基層公務員，上任百日還如此濫權亂政，真是扯到爆！」對於此事件，張善政指出，市府團隊會記取教訓，對生命抱持嚴肅尊重的態度，並請農業局儘速提出檢討報告與精進作為。
 </t>
         </is>
       </c>
@@ -565,18 +565,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>孫曉雅認台灣牛肉麵鐵粉　曝學煮圖吐1事</t>
+          <t>顏寬恒驚傳遭搜索約談　偵訊後1千萬交保</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272744</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272755</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-政治中心／陳慈鈴報導▲孫曉雅表示，「我是台灣牛肉麵的忠實粉絲」，近日還學習如何煮。（圖／翻攝自美國在台協會 AIT臉書）台灣的牛肉麵遠近馳名，不僅受到台灣人喜愛，就連外國人也愛這一味。對此，美國在台協會AIT處長孫曉雅透露，「我是台灣牛肉麵的忠實粉絲」，最近更幸運的，有機會向國立高雄餐旅大學的陳正忠主廚學習，如何煮出一道美味的牛肉麵。孫曉雅28日下午在「美國在台協會 AIT」臉書表示，「相信許多人都知道，我是台灣牛肉麵的忠實粉絲」，提到台灣的牛肉麵是世界有名的，成功收服了各國旅客的心。孫曉雅透露，她有幸向國立高雄餐旅大學的陳正忠主廚學習如何煮牛肉麵，而且使用美味的美國牛更增添風味！「沒有什麼比美食更能凝聚美國和台灣的人民和豐富的文化了！」看更多新聞》木村拓哉爆婚變後露面！「滿頭白髮」近照曝光 陷髮際線危機顯老態▲身為台灣牛肉麵鐵粉的孫曉雅直言，沒什麼比美食更能凝聚美台。（圖／翻攝自美國在台協會 AIT臉書）文末也貼出9張照片，展示了學習牛肉麵的過程以及成果。從照片中可以看到，孫曉雅的裝扮相當到位，無論是切肉，還是炒鍋都架式十足，成品照看上去也是色香味俱全，滿滿的牛肉塊，搭配著煮好的麵條，再灑上一些蔥花、配上一些青菜，看得讓人口水直流。▲孫曉雅學煮台灣牛肉麵畫面曝光，網友大讚有大廚架式。（圖／翻攝自美國在台協會 AIT臉書）貼文曝光後，網友紛紛表示，「處長有大廚的架式喔！」、「美國牛以穀物飼養，甜美多汁無草腥味。台灣牛肉麵用美國牛，真是絕配」、「美麗的處長，請問AIT有考慮開設牛肉麵分館嗎？看起來超美味的好想吃」、「要說義大利有義大利麵，台灣就牛肉麵莫屬了」、「看得我餓了」。看更多新聞》辦完好市多卡拿到「黑金隱藏版」他困惑！超狂用途曝光
+記者潘靚緯／台中報導▲顏寬恒、陳麗淩夫婦涉嫌竊佔、偽造文書罪，28日遭檢調搜索，漏夜偵訊後以1000萬元、500萬元交保候傳。（圖／資料照）前立委顏寬恒去年初投入台中第二選區立委補選，遭爆出佔用水利地、沙鹿豪宅違建爭議，顏寬恒親自上陣在鏡頭前開挖土機鏟平招待所，平息爭議，落選後顏家斷尾求生，以4500萬拋售沙鹿豪宅。顏寬恒上周登記領表，打算捲土重來再戰立委，台中檢調同步接獲檢舉，28日大動作搜索顏家並帶走顏寬恒、陳麗淩夫婦，漏夜偵訊後以竊佔、偽造文書等罪嫌，諭令夫婦倆各1000萬元、500萬元交保候傳。台中地檢署襄閱表示，偵辦顏姓被告涉嫌竊佔、偽造文書等罪嫌案件，經本署指揮本署重案支援中心、調查局中機站、航調處執行搜索、傳訊，經檢察官訊後，認為所涉犯罪嫌疑重大，惟尚無羈押之必要，經檢察官審酌本案被告所涉罪名、犯罪情節及相關事證，分別諭知顏姓被告、其配偶陳姓被告新臺幣1000萬元、500萬元交保候傳。對此，顏寬恒服務處人員表示，稍後將會統一對外說明。看更多新聞》陳庭妮父欠稅418萬還脫產 遭管收關進看守所▲▼爆出違建爭議的顏家沙鹿豪宅，顏家火速低價以4500萬拋售，如今遭檢舉疑似為假交易遭檢調搜索。（圖／資料照）顏寬恒去年初投入台中第二選區立委補選，對上民進黨候選人林靜儀，雙方激烈交鋒，不過顏家接連爆出佔用南屯區楓樹里817地號公設保留地興建招待所，又被爆出沙鹿豪宅，不只佔用國有地還涉及違建。據了解，位於龍井、沙鹿交界的豪宅，建地約130坪，緊鄰國有保護區土地廣達770坪，主要為顏寬恒的母親與其他家人居住。台中市政府都市發展局認定，豪宅佔據國有地的違建有兩處，約175平方公尺，違建包括地下室一層約195平方公尺、屋前雨遮、天井封閉、垂直增建一層（頂樓加蓋）、圍牆，市府當時發出通知書要求顏家限期拆除。事後顏家火速搬離豪宅，以市價約5折的價格4500萬拋售，試圖斷尾求生，新買主據傳是一家空間設計公司，是顏家御用的設計師。3月22日顏寬恒託助理領表，登記參選國民黨台中市第二選區立委黨內初選，短短六天傳出檢調接獲檢舉，顏家豪宅表面上已拋售，但相關買賣、過戶恐怕涉及假交易，檢調兵分多路搜索前立委顏寬恒住處等地，帶走顏寬恒與妻子陳麗淩偵訊，經漏夜偵訊後各以1000萬元、500萬元交保候傳。看更多新聞》「蛋蛋地圖」來了！全聯、家樂福進口蛋開賣 1秒查庫存不撲空
 </t>
         </is>
       </c>
@@ -587,18 +587,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>蔡英文將出訪！美國臨時喊卡總統過境簡報</t>
+          <t>馬英九自稱「前總統」在中國首提中華民國</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272709</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272294</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-政治中心／黃韻璇報導總統蔡英文今（29）日將出訪我國中美洲邦交國貝里斯及瓜地馬拉，並於去程過境美國紐約，回程過境洛杉磯，共10天9夜。然而原定要發布的「台灣總統過境美國」簡報會，卻在舉行前突然取消。蔡英文總統此行預計於29日中午12時30分啟程出訪，並將在機場發表談話。30日過境紐約，並待2夜；4月1日抵達瓜地馬拉；3日抵達貝里斯；5日則過境洛杉磯，也是待2夜，預計7日返抵國門。其中，行程是否將會見到美國眾議院議長麥卡錫（Kevin McCarthy）也備受關注，外媒甚至透露，蔡英文在30日於紐約將會參與華府智庫「哈德遜研究所」的演說，不過，總統府對於美國行程保密到家。▲蔡英文今睽違3年出訪。（資料照／總統府提供）然而值得關注的是，據《聯合報》報導，就在蔡英文總統即將出發前夕，美國國務院亞太助卿康達（Daniel Kritenbrink），原本要舉行的「台灣總統過境美國」簡報，卻在舉行前半小時，分別通知「取消」及「延期」，只提到會在準備好後再宣布新的簡報時間。然而這原本可能是兩國斷交後，中華民國總統歷次過境以來，美國國務院首次有資深官員，將為過境舉行簡報會，但卻在最後一刻喊停，引發關注，不過白宮國安會重申，蔡英文過境美國並不罕見，強調是「非官方過境」，並說美國官員沒有碰面計畫。
+記者陳怡潔／台北報導▲馬英九至中山陵揮毫寫下8字「和平奮鬥 振興中華」。（圖／馬英九辦公室提供）前總統馬英九昨天以「祭祖」名義前往中國訪問12天，成為兩岸分治74年來，首位踏上中國的中華民國卸任元首。馬英九今(28)日上午到南京中山陵拜謁國父孫中山，並於參觀完孫中山紀念館後發表談話，自稱「馬英九前總統」，並提及中華民國，呼籲兩岸共同努力，追求和平、避免戰爭，致力振興中華。馬英九今天上午到南京中山陵拜謁國父孫中山，現場揮毫寫下8字「和平奮鬥 振興中華」。將孫中山臨終前在病榻上的遺言「和平、奮鬥、救中國」改寫。馬英九致詞全文：民國112年3月28日馬英九前總統率馬英九基金會同仁與同學敬謁南京中山陵致詞全文 各位同仁、各位同學：國父孫中山先生畢生領導國民革命，推翻滿清，創建民國，到今天已經112年了。回想當時的中國，滿清政府貪污腐敗，積弱不振、飽受列強侵略。從1842年（清道光22年）簽訂「中英南京條約」以來，被迫跟50多國簽訂100多個不平等條約，割地賠款、喪權辱國。而當時中國社會貧富懸殊，文盲處處、法治不彰、社會發展落後，人民無力反抗，國勢危如壘卵，國家看不到希望。幸賴國父1894年（清光緒20年）在美國檀香山成立興中會，登高一呼，提出「驅除韃虜，恢復中華，創立合眾政府」的建國理想，號召海內外志士仁人共襄大業，歷經革命先烈十次流血革命行動，終於在18年後的1911年(清宣統3年)，推翻滿清，終結中國四千多年的君主專政，建立亞洲第一個民主共和國─中華民國。國父對中國史無前例的偉大貢獻，就是改變中國的命運，讓中國走向富強康樂的開始。兩岸人民同屬中華民族，都是炎黃子孫。今天，當年國父念茲在茲的多項建國主張，都已陸續分別在臺灣與大陸實現，這對於兩岸人民與後代子孫的生活與福祉，至關重要。民國14年（1925年）3月12日國父逝世。在遺言中要求國人要「和平、奮鬥、救中國」。98年後的今天，我們馬英九基金會的數十位同仁與同學，從臺灣來到南京中山陵國父靈前致祭，提出「和平奮鬥、振興中華」的目標，深盼兩岸共同努力，追求和平、避免戰爭，致力振興中華。這是兩岸中國人不可迴避的責任，我們一定要努力實現。
 </t>
         </is>
       </c>
@@ -609,18 +609,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>蔡英文睽違3年出訪！將見麥卡錫備受關注</t>
+          <t>馬英九哽咽嘆氣：我們中國人要自立自強</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272559</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272829</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-記者高逸帆／台北報導▲蔡英文今睽違3年出訪。（資料照／總統府提供）總統蔡英文今（29）日將出訪我國中美洲邦交國貝里斯及瓜地馬拉，並於去程過境美國紐約，回程過境洛杉磯，共10天9夜。本次出訪在台灣與宏都拉斯斷交後，除了有鞏固邦誼意味，行程是否將會見到美國眾議院議長麥卡錫（Kevin McCarthy）也備受關注。蔡英文今中午12時30分啟程出訪，並將在機場發表談話。30日過境紐約，並待2夜；4月1日抵達瓜地馬拉；3日抵達貝里斯；5日則過境洛杉磯，也是待2夜，預計7日返抵國門。不過，總統府對於美國行程保密到家。外媒透露，蔡英文在30日於紐約將會參與華府智庫「哈德遜研究所」的演說，並獲頒該智庫所頒發的「全球領導力獎」。至於加州行程，則預計與美國眾議院議長麥卡錫會面。至於瓜地馬拉行程，蔡英文預計將與僑界代表會面，並接受軍禮歡迎，以及與瓜國總統賈麥岱（Alejandro Giammattei）談話，並受勳與國宴款待；此外，抵達貝里斯後，則與該國總理布里仙紐（John Briceño）會談，並將在國會發表演說。總統府發言人林聿禪日前表示，對於此次出訪，蔡英文期許能達成「民主深化」、「共榮發展」兩大目標。她說，深化民主夥伴交流合作，共同維護國際和平穩定，也持續推動互惠共榮的合作計畫，共同拚福利、拚建設、拚經濟。本次訪團人員包括總統府秘書長林佳龍、外交部部長吳釗燮、僑務委員會委員長徐佳青、總統府副秘書長張惇涵、經濟部次長陳正祺、總統府醫療小組召集人陳振文、總統府發言人林聿禪。隨團的立委則有民進黨陳歐珀、陳明文，民眾黨邱臣遠，以及時代力量王婉諭，國民黨選擇不參加。外交部次長俞大㵢強調，總統此次出訪是為彰顯我與瓜地馬拉、貝里斯兩國邦誼友好，展現雙邊合作成果與友邦共創互利共榮之前景，增進總統與受訪國高層之互動及情誼。
+記者陳怡潔／台北報導【3/29 11:15 發稿 ｜ 12:30 更新：新增影音 】▲馬英九參訪南京大屠殺紀念館。前總統馬英九以「祭祖」名義前往中國訪問12天，今(29)日上午參訪南京大屠殺紀念館，並於參訪完後受訪時些微哽咽說，「關於南京大屠殺歷史書籍照片，我也看了一些，但從來沒有像今天這樣有這麼大的衝擊……」，並嘆了一口氣。馬英九也指出，「我覺得我們所有中國人，都應該從這件事情上得到教訓，自立自強，才不會被人欺凌」。馬英九今天上午參訪侵華日軍南京大屠殺（江東門紀念館）遇難同胞紀念館，於參訪前在館外進行祭奠儀式，向遇難同胞獻花、獻花籃致祭。國台辦副主任陳元豐、南京市委書記韓立明、江蘇省常委惠建林、國台辦聯絡局局長孫升亮、江蘇省台辦主任練月琴、南京市委秘書長蔣躍建陪同致祭，全員鞠躬默哀。入內人員皆被提醒要穿著深色服裝，談話聲量降低，手機調整靜音，馬英九也特別繫上黑領帶。看更多新聞》每天早餐吃三明治！37歲旅歐男回台灣健檢下場慘馬英九表示，關於南京大屠殺歷史書籍照片，他也看了一些，但從來沒有像今天這樣有這麼大的衝擊……，馬嘆了一口氣繼續說，因為這是人類歷史上罕見野獸般的行為，中國人成為最大受害者，所以他剛才在留言簿上寫著「歷史絕不可以遺忘」，「我覺得我們所有中國人都應該從這件事情上，得到教訓、自立自強，才不會被人欺凌、任人宰割，這是我最大感受」。馬英九認為，身為一個中國人，不管在海峽哪一邊，都應該自立自強，對於來自外面欺凌，要勇敢抵抗，這是要從小學、中學、大學教育中，讓民眾了解重要事實，並採取必要準備。坦言情緒的確受到很大衝擊，這跟看書看照片感受完全不一樣，中國這個民族，歷史上有很大災難，從沒有像跟日本人作戰過程中受到這麼多屈辱、迫害，經過這麼長時間沒有完全康復，我們應該自立自強 應該注意保持仁愛的心，不要侵略別人，這是得到最好教訓。而許多外媒預言兩岸可能開打，中國不放棄武統，該怎麼做避免戰爭威脅？馬英九說，兩岸都應該避戰、謀和，避免戰爭發生，並研商如何避免戰爭，一旦戰爭發生，沒有其他任何事可以彌補。看更多新聞》馬英九赴中「兩大負面影響」曝 學者全說了▲馬英九參訪南京大屠殺紀念館，留言簿上寫著「歷史絕不可以遺忘」。(圖/馬英九辦公室提供)
 </t>
         </is>
       </c>
@@ -631,18 +631,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>誰下令殺狒狒？王義川：直接叫這個人滾</t>
+          <t>他斥「藍色1450」捧張善政：操作狒狒事件</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272619</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272877</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-政治中心／蕭宥宸報導▲王義川點名張善政叫盧紀燁出來說明當天現場真相。桃園市流浪多日的狒狒昨（27）日遭捕獲後不治，到底是誰下令要開槍，如今已然變成羅生門，對此，台灣智庫策略長王義川指出，當時想拍照給女兒看的農業局專門委員盧紀燁，職位屬於機要任用，更是現場的指揮官。王義川也向桃園市長張善政喊話，「請他（指盧紀燁）出來說清楚，如果不說清楚，我建議張善政直接叫這個人滾，你做最差的生命教育」。新台灣加油。▲ 新台灣加油。
+政治中心／台北報導媒體人陳揮文昨（28日）晚在《飛碟晚餐 陳揮文時間》廣播節目談到狒狒事件表示，他懷疑有人操作、物極必反，之前吹捧桃園市長張善政的迴力鏢來得「又快又狠」，斥藍色1450「好不到哪裡去」。▲陳揮文認為，狒狒事件有人操作。（圖／翻攝畫面）陳揮文在廣播節目上說，桃園市政府同仁的表現「荒腔走板」，實在不好，對照最近桃園新聞那麼多、用滾的，熱鬧滾滾，絕非偶然，而是有人在操作，物極必反，之前有六都好感度調查，第一名是張善政，現在再調查，因為狒狒事件，張鐵定最後一名。陳揮文接著說，「這種操作，我跟你講，綠色的1450讓人很叉叉，藍色的1450也好不到哪裡去，我只能告訴大家，事出必有因、空穴不來風！」狒狒事件大作特作，是有很多不為人知的原因。陳揮文說，前總統馬英九訪中是「大事」，蔡英文總統29日出訪中南美洲友邦、來回過境美國，鴻海創辦人郭台銘人也在美國，過幾天民眾黨主席柯文哲也要到美國，「有這麼多新聞可以談，你在談狒狒，不知道大家...到底孰輕孰重。」他又說，「我當然是反對，（抓狒狒）怎麼會用獵槍！你不是有麻醉槍嗎？有麻醉槍、幹嘛用獵槍？我還是不懂，這麼多人，抓了這麼多天，最後的結果居然是這麼的那個，可見不行。」陳揮文最後下了結論，「之前對張善政在桃園的吹捧，那個不是偶然，但是我要講的是，迴力鏢來得又快又狠！」
 </t>
         </is>
       </c>
@@ -653,18 +653,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>馬英九自稱「前總統」在中國首提中華民國</t>
+          <t>陸搶當宏國留學生新家　外交部一句話嗆爆</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272294</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272498</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-記者陳怡潔／台北報導▲馬英九至中山陵揮毫寫下8字「和平奮鬥 振興中華」。（圖／馬英九辦公室提供）前總統馬英九昨天以「祭祖」名義前往中國訪問12天，成為兩岸分治74年來，首位踏上中國的中華民國卸任元首。馬英九今(28)日上午到南京中山陵拜謁國父孫中山，並於參觀完孫中山紀念館後發表談話，自稱「馬英九前總統」，並提及中華民國，呼籲兩岸共同努力，追求和平、避免戰爭，致力振興中華。馬英九今天上午到南京中山陵拜謁國父孫中山，現場揮毫寫下8字「和平奮鬥 振興中華」。將孫中山臨終前在病榻上的遺言「和平、奮鬥、救中國」改寫。馬英九致詞全文：民國112年3月28日馬英九前總統率馬英九基金會同仁與同學敬謁南京中山陵致詞全文 各位同仁、各位同學：國父孫中山先生畢生領導國民革命，推翻滿清，創建民國，到今天已經112年了。回想當時的中國，滿清政府貪污腐敗，積弱不振、飽受列強侵略。從1842年（清道光22年）簽訂「中英南京條約」以來，被迫跟50多國簽訂100多個不平等條約，割地賠款、喪權辱國。而當時中國社會貧富懸殊，文盲處處、法治不彰、社會發展落後，人民無力反抗，國勢危如壘卵，國家看不到希望。幸賴國父1894年（清光緒20年）在美國檀香山成立興中會，登高一呼，提出「驅除韃虜，恢復中華，創立合眾政府」的建國理想，號召海內外志士仁人共襄大業，歷經革命先烈十次流血革命行動，終於在18年後的1911年(清宣統3年)，推翻滿清，終結中國四千多年的君主專政，建立亞洲第一個民主共和國─中華民國。國父對中國史無前例的偉大貢獻，就是改變中國的命運，讓中國走向富強康樂的開始。兩岸人民同屬中華民族，都是炎黃子孫。今天，當年國父念茲在茲的多項建國主張，都已陸續分別在臺灣與大陸實現，這對於兩岸人民與後代子孫的生活與福祉，至關重要。民國14年（1925年）3月12日國父逝世。在遺言中要求國人要「和平、奮鬥、救中國」。98年後的今天，我們馬英九基金會的數十位同仁與同學，從臺灣來到南京中山陵國父靈前致祭，提出「和平奮鬥、振興中華」的目標，深盼兩岸共同努力，追求和平、避免戰爭，致力振興中華。這是兩岸中國人不可迴避的責任，我們一定要努力實現。
+政治中心／蕭宥宸報導▲宏國政府選擇倒向中共，讓在台留學生處境尷尬。（示意圖／資料照）抗拒不了中共誘惑，前友邦宏都拉斯26日與我國斷交，結束長達82年的邦誼。目前宏國共有104名在台留學生領有台灣獎學金，如今恐失援助，中共也不忘趁隙而入，稱願意接受宏國所有在台留學生，還要成為「他們溫暖的新家」。對此，我國外交部發言人劉永健表示，留學生的獎學金將提供至本學期為止，學期末也會給他們回國的單程機票；至於中國的挖牆腳，他直言：「哪個社會有利於學習，答案非常清楚」。根據教育部的統計資料，目前有359名宏國留學生在台求學，分布在國內21所大專院校，台大、銘傳各有31名占大宗，政大約20名，台師大、清大各16名。359人中修讀正式學位者220位，華語生138位，交換生1位，104人領有台灣提供的獎學金，邦交告終恐影響其就學權益。中共外交主管機關發言人毛寧昨（27）日就趁機收買民心，稱願意接受全部宏國留學生，還要成為他們溫暖的新家。劉永健今日於外交部例會中回應，為彰顯我國重視人權與人道考量，宏國與我斷交後，留學生們原先領有的獎學金會提供到這學期結束，學期末也會給他們回國的單程機票，減少對宏國學生的影響。劉永健還說，與台灣社會的自由、民主、開放相比，中國集權、封閉又不容許言論自由，「哪個社會比較有利學習，這個答案非常清楚」。
 </t>
         </is>
       </c>

--- a/setn_data.xlsx
+++ b/setn_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,18 +456,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>親手埋葬中華民國？他揭馬英九祭文玄機</t>
+          <t>蔣萬安：明年1月恢復YouBike前30分鐘免費</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272574</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272990</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-政治中心／蕭宥宸報導▲李正皓認為馬英九「把中華民國當成歷史故事在講」。前總統馬英九訪中「祭祖」之旅，不僅接機規格大降級！就連隨行記者也被處處設限、還因當地司機迷航導致脫隊！資深媒體人王時齊今（28）日在三立政論節目《前進新台灣》中質疑，這些可能都是預謀，因為從馬英九出發開始，中國就開始「有意識」在每一個環節「羞辱」，因為馬英九作為台灣的前元首，羞辱了他，等於是「羞辱了全台灣」。王時齊感嘆，馬英九竟然對於接待規格，竟然還配合度超高的說「超乎預期、怎麼對我那麼好」。而中方對於馬英九「種種打壓」還不僅如此，王時齊節目中再揭「中國小手段」！她秀出「中評社」報導表示，中評社刊載馬英九在中山陵的落款布條圖片時，把「百十二」裁切掉，圖上只剩下「馬英九」。王時齊直指，中方擺明從大到小的環節都要給馬英九「穿小鞋」，他認為，作為台灣人民看了是「難過、傷心的」，質疑「馬英九是不是不在乎台灣」？另外，馬英九今日大張旗鼓地去謁「中山陵」，但祭文藏蹊蹺？政治評論員李正皓指出，馬英九光是祭文，就跟2014年的陸委會主委王郁琦「差非常的多」。李正皓怒指，馬英九這次最可惡的是，「他把中華民國當成歷史故事在講，不是現在還存在的一個國家」，因為當時王郁琦祭文用「民國紀年」代表中華民國還在，而馬英九「很奇怪」他卻用「癸卯年」，換句話說「中華民國已經沒有往前」；再者馬英九在祭文上署名「馬英九先生率訪問團謹奠」，而王郁琦則用「大陸委員會主任委員」，代表「中華民國官員也持續存在」。李正皓指出，為什麼要一直提到「官銜」，因為這關乎中華民國到底存不存在。比較完祭文，再來比較訪問。李正皓說王郁琦是堂堂正正地提到「中華民國」，但馬英九卻說孫中山領導國民革命，推翻滿清創建民國，到今天已經112年，他指說推翻滿清已經112年，中華民國滅亡沒還不知道！馬又說國父建立亞洲第一個民主共和國「中華民國」。李正皓質疑，馬英九根本是在玩「文字遊戲」！他指出，就算馬英九有講「中華民國」有必要遮遮掩掩？李正皓更批評，馬英九落款寫「百十二」旁邊還加「二零二三」，有人這樣寫的嗎？李正皓嘆，現在馬英九、國民黨對兩岸關係的論述跟堅持，「跟我以前在國民黨是完全不一樣的。」
+記者陳怡潔／台北報導▲蔣萬安出席市政會議。（圖／北市府提供）台北市長蔣萬安在競選期間提出要恢復YouBike前30分鐘免費政見，國民黨台北市議員詹為元則提出質疑，YouBike無車可借成為台北市民最頭痛的問題。對此，蔣萬安今（29日）表示，上半年會增加1780台，屆時前30分鐘免費上路後會做更有效配置，正在進行數據分析；而目前規劃前30分鐘免費將在明年1月上路。詹為元昨天指出，蔣萬安提出YouBike前三十分鐘免費的政策，立意雖良善，但政策推行前應先檢討空車率過高的問題。民眾陳情的前五大案件中，居於首位就是「無車可借」，近3個月的總數就高達61次，是排名第5位的「遺失車通報」問題的兩倍之多。而且，現狀無車可借統計數據無法反映真實情況，因為大多數民眾都是走到租借點發現沒車後就會離開選擇其他交通方式，根本懶得通報，因此存在著巨大的黑數，無車可借的次數可能不僅檯面上的數字而已。蔣萬安今天出席112年本府模範公務人員暨優秀青年公務人員表揚典禮，會前接受媒體聯訪表示，他自己在熱門站點也遇過無車可借，到目的地無停車柱可還，所以為了解決這問題，已經指示交通局，上半年進行小規模車輛增加，1780輛，接下來請交通局、資訊局透過資料分析，做更有效率、聰明的配置，進行優化調度，才能真正解決問題。媒體詢問，什麼時候恢復前30分鐘免費？蔣萬安透露，目前規劃明年1月，會做好配套措施。
 </t>
         </is>
       </c>
@@ -478,18 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>不甩同袍舔中！退役上將3度堅拒接觸中共</t>
+          <t>馬英九哽咽嘆氣：我們中國人要自立自強</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272699</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272829</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-圖、文／鏡週刊▲苗永慶（左）出身海軍，治軍向來嚴謹，在軍方歷練完整，榮升二級上將，深獲部屬愛戴。（圖／翻攝自中華學術文教基金會官網）檢調發現，有許多退將堅拒與對岸接觸，堅守國共不兩立的原則，包括曾任國防部副參謀總長及海軍總司令的前海軍二級上將苗永慶，當方新生要求夏復翔引薦苗赴中參訪，對話提及：「有了新名單以後，我們協商一下，再做最後確認，另外啊，你再邀請一下苗先生好不好？」 夏復翔為了完成任務，透過前海軍副總司令退役的中將高揚，代為邀約苗永慶赴中，但高聽了隨即回說：「苗永慶不願與中國官方有私下接觸。」拒絕代為邀約，但高則同意受邀赴中。後來，夏再透過管道力邀苗永慶，苗最後乾脆以出國為由，前後三度拒絕赴中，讓中共徹底死了心。▲海軍退役上將苗永慶遭中國鎖定吸收，但他不為所動，堅持不和中共接觸。（圖／翻攝自維基百科）苗永慶出身海軍，深受基層士官兵愛戴，海軍軍官學院內，有棟號稱小白宮的復興館，過去曾是蔣介石行館，苗永慶擔任海軍司令時曾在此植樹，樹前還留了「永流其源」碑文，意指「本校培養一群群德智兼備、忠貞勇敢的男女青年菁英，將源源不絕自雄偉官校大門走出，同為建設新海軍而努力。」從這段話也看得出他對國軍滿懷期待及保衛台海安全的決心。此外，曾赴中的高揚日前向檢調證稱：「活動中應有國台辦的人混在裡面，藉由退將介紹其他人而達到統戰目的。」由於郝一峰見總是同批人赴中，要求夏復翔再找其他退將來訪，甚至對他說：「你現在可以初步物色團隊啦，但是有一點，你要有新人，你不能老面孔。」顯見李鷹、方新生與郝一峰等人絕非單純的商人，而是負有對台統戰、滲透、情蒐及發展組織的中共情治系統人員。【點擊看完整全文】更多鏡週刊報導【全文】48退將捲入羅志明共諜案　呂秀蓮遭鎖定吸收未果【48退將捲共諜4】直擊兩岸「黃埔一家親」　退將獲落地招待爽樣全曝光【48退將捲共諜5】祭</t>
+記者陳怡潔／台北報導【3/29 11:15 發稿 ｜ 12:30 更新：新增影音 】▲馬英九參訪南京大屠殺紀念館。前總統馬英九以「祭祖」名義前往中國訪問12天，今(29)日上午參訪南京大屠殺紀念館，並於參訪完後受訪時些微哽咽說，「關於南京大屠殺歷史書籍照片，我也看了一些，但從來沒有像今天這樣有這麼大的衝擊……」，並嘆了一口氣。馬英九也指出，「我覺得我們所有中國人，都應該從這件事情上得到教訓，自立自強，才不會被人欺凌」。馬英九今天上午參訪侵華日軍南京大屠殺（江東門紀念館）遇難同胞紀念館，於參訪前在館外進行祭奠儀式，向遇難同胞獻花、獻花籃致祭。國台辦副主任陳元豐、南京市委書記韓立明、江蘇省常委惠建林、國台辦聯絡局局長孫升亮、江蘇省台辦主任練月琴、南京市委秘書長蔣躍建陪同致祭，全員鞠躬默哀。入內人員皆被提醒要穿著深色服裝，談話聲量降低，手機調整靜音，馬英九也特別繫上黑領帶。看更多新聞》每天早餐吃三明治！37歲旅歐男回台灣健檢下場慘馬英九表示，關於南京大屠殺歷史書籍照片，他也看了一些，但從來沒有像今天這樣有這麼大的衝擊……，馬嘆了一口氣繼續說，因為這是人類歷史上罕見野獸般的行為，中國人成為最大受害者，所以他剛才在留言簿上寫著「歷史絕不可以遺忘」，「我覺得我們所有中國人都應該從這件事情上，得到教訓、自立自強，才不會被人欺凌、任人宰割，這是我最大感受」。馬英九認為，身為一個中國人，不管在海峽哪一邊，都應該自立自強，對於來自外面欺凌，要勇敢抵抗，這是要從小學、中學、大學教育中，讓民眾了解重要事實，並採取必要準備。坦言情緒的確受到很大衝擊，這跟看書看照片感受完全不一樣，中國這個民族，歷史上有很大災難，從沒有像跟日本人作戰過程中受到這麼多屈辱、迫害，經過這麼長時間沒有完全康復，我們應該自立自強 應該注意保持仁愛的心，不要侵略別人，這是得到最好教訓。而許多外媒預言兩岸可能開打，中國不放棄武統，該怎麼做避免戰爭威脅？馬英九說，兩岸都應該避戰、謀和，避免戰爭發生，並研商如何避免戰爭，一旦戰爭發生，沒有其他任何事可以彌補。看更多新聞》馬英九赴中「兩大負面影響」曝 學者全說了▲馬英九參訪南京大屠殺紀念館，留言簿上寫著「歷史絕不可以遺忘」。(圖/馬英九辦公室提供)
+</t>
         </is>
       </c>
     </row>
@@ -499,173 +500,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>擊斃狒狒！張善政向獵人提4疑問：誰委託</t>
+          <t>顏寬恒夫婦遭搜索千萬交保　林靜儀說話了</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272354</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272818</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-記者林意筑／綜合報導【 3/28 12:41 發稿 ｜ 13:53 更新：新增影音 】▲東非狒狒中槍身亡。（圖／翻攝畫面）東非狒狒經歷17日的逃亡後，最終27日下午在桃園楊梅區一處民宅內被捕獲，不過卻遭到獵槍射擊不幸受傷，受到槍傷的狒狒在送往六福村時傷重不治，引發社會各界熱議。對此，桃園市長張善政今（28）日表示遺憾、難過，並對林姓獵人提出「4疑問」。▲狒狒屍體將送北市動物園檢驗。（圖／中央社）對於狒狒的死亡，張善政表示，桃園農業局近日花了很多時間在圍堵，但狒狒卻被不明來路的獵人用普通的子彈擊斃，這個讓我們非常的難過、遺憾，更是懊惱。至於是誰聘請獵人、為何使用普通子彈，都將交由警察局調查釐清。▲農業局專門委員第一時間忙著合照挨轟。（圖／翻攝畫面）另外，昨日農業局專門委員盧紀燁捕獲狒狒第一時間忙著合照，遭批冷血，對此張善政回應，人員對狒狒沒有展現尊敬生命、愛心的部分，桃園市政府及農業局將會努力的檢討、努力的改進，希望將來不要再犯，至於懲處內容我們內部會開會來檢討。張善政也說明，圍捕到狒狒時發現牠躺在地上，因此農業局人員以為是麻醉劑已經發作，並不知道開的是真槍，也不知道狒狒已經幾乎死亡，當時僅認為是麻醉劑的作用，所以狒狒才沒有反應。▲林姓獵人合法使用獵槍射殺狒狒。（圖／翻攝畫面）張善政也說，目前警方仍在與林姓獵人訪談，而這槍顯然是林姓獵人開的，不過他「為何開槍？」、「為何在桃園境內開槍？」、「是誰委託的？」及「為何使用普通子彈？而非麻醉劑」都將請警方持續釐清。同時，林姓獵人已向警察說明，不是桃園市政府的農業局委託他來做這個事情。
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>誰下令殺狒狒？王義川：直接叫這個人滾</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272619</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-政治中心／蕭宥宸報導▲王義川點名張善政叫盧紀燁出來說明當天現場真相。桃園市流浪多日的狒狒昨（27）日遭捕獲後不治，到底是誰下令要開槍，如今已然變成羅生門，對此，台灣智庫策略長王義川指出，當時想拍照給女兒看的農業局專門委員盧紀燁，職位屬於機要任用，更是現場的指揮官。王義川也向桃園市長張善政喊話，「請他（指盧紀燁）出來說清楚，如果不說清楚，我建議張善政直接叫這個人滾，你做最差的生命教育」。新台灣加油。▲ 新台灣加油。
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>抓狒擺拍專委起底　她揭貓膩：又一個余文</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272665</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-政治中心／林昀萱報導▲桃園市農業局專委盧紀燁捕獲狒狒忙拍照引起抨擊，請辭獲准。余宛如嘆「又一個余文。」（圖／翻攝畫面）東非狒狒經歷17日的逃亡後，27日下午在桃園楊梅區一處民宅內被捕獲，不過卻遭到獵槍射擊受傷、在送往六福村時傷重不治，引發社會各界熱議。其中帶頭的桃園市農業局專委盧紀燁捕獲狒狒後第一時間忙著合照，引發抨擊已在昨日請辭獲准。對此，前立委余宛如直言，「切割一個專委是負什麼政治責任啦？誰下命令叫盧紀燁去的，誰才該負政治責任，又一個余文。」狒狒遭槍擊身亡震驚全台，儘管桃園市農業局澄清抵達時第一時間不知道狒狒受傷，然因捕獲現場的影片因可見帶頭的桃園市農業局專委盧紀燁不斷拍照，不僅邀請阿嬤來拍照，還請人幫拍稱「要給女兒看」等，讓影片流出後，遭各界撻伐。有PTT網友起底盧紀燁身份，發現他大有來頭，不僅曾經獲得「百大青農」，後來又搖身一變成為高學歷的養鷹人。網友指出，張善政由行政院長退下時到花蓮結識盧紀燁，郭台銘當初要選總統張善政也特別帶他到盧紀燁家中拜訪，「後來變成張和韓導搭配要出來選舉，他又變團隊人員。」網友直言：「只能說待得夠久管你是什麼，有位置就是你的。」▲余宛如質疑，切割一個專委是負什麼政治責任啦？誰下命令叫盧紀燁去的、誰才該負政治責任。（圖／翻攝畫面）對於盧紀燁請辭獲准，余宛如昨（28）日在臉書直言，「專委連個政務官都不是，切割一個專委是負什麼政治責任啦？誰下命令叫盧紀燁去的、誰才該負政治責任。」余宛如指出，盧紀燁是市長酬庸的機要人員，掛在資訊科技局內，「號稱自己是科技市長的張善政，不只酬庸亂政，到底懂不懂資訊科技局的業務？竟然指派資科局專委去抓狒狒。真是令前資訊科技局長的我，瞠目結舌。」她批評，「今天還是2023智慧城市展的第一天，專委是沒有正事要做嗎？張市長不是最愛砍酬庸嗎？有市長的軍令狀，難怪「抓狒戰情室」圍捕作業一蹋糊塗，專委只記得拍照作秀，出了事就推諉給基層公務員，上任百日還如此濫權亂政，真是扯到爆！」對於此事件，張善政指出，市府團隊會記取教訓，對生命抱持嚴肅尊重的態度，並請農業局儘速提出檢討報告與精進作為。
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>顏寬恒驚傳遭搜索約談　偵訊後1千萬交保</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272755</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-記者潘靚緯／台中報導▲顏寬恒、陳麗淩夫婦涉嫌竊佔、偽造文書罪，28日遭檢調搜索，漏夜偵訊後以1000萬元、500萬元交保候傳。（圖／資料照）前立委顏寬恒去年初投入台中第二選區立委補選，遭爆出佔用水利地、沙鹿豪宅違建爭議，顏寬恒親自上陣在鏡頭前開挖土機鏟平招待所，平息爭議，落選後顏家斷尾求生，以4500萬拋售沙鹿豪宅。顏寬恒上周登記領表，打算捲土重來再戰立委，台中檢調同步接獲檢舉，28日大動作搜索顏家並帶走顏寬恒、陳麗淩夫婦，漏夜偵訊後以竊佔、偽造文書等罪嫌，諭令夫婦倆各1000萬元、500萬元交保候傳。台中地檢署襄閱表示，偵辦顏姓被告涉嫌竊佔、偽造文書等罪嫌案件，經本署指揮本署重案支援中心、調查局中機站、航調處執行搜索、傳訊，經檢察官訊後，認為所涉犯罪嫌疑重大，惟尚無羈押之必要，經檢察官審酌本案被告所涉罪名、犯罪情節及相關事證，分別諭知顏姓被告、其配偶陳姓被告新臺幣1000萬元、500萬元交保候傳。對此，顏寬恒服務處人員表示，稍後將會統一對外說明。看更多新聞》陳庭妮父欠稅418萬還脫產 遭管收關進看守所▲▼爆出違建爭議的顏家沙鹿豪宅，顏家火速低價以4500萬拋售，如今遭檢舉疑似為假交易遭檢調搜索。（圖／資料照）顏寬恒去年初投入台中第二選區立委補選，對上民進黨候選人林靜儀，雙方激烈交鋒，不過顏家接連爆出佔用南屯區楓樹里817地號公設保留地興建招待所，又被爆出沙鹿豪宅，不只佔用國有地還涉及違建。據了解，位於龍井、沙鹿交界的豪宅，建地約130坪，緊鄰國有保護區土地廣達770坪，主要為顏寬恒的母親與其他家人居住。台中市政府都市發展局認定，豪宅佔據國有地的違建有兩處，約175平方公尺，違建包括地下室一層約195平方公尺、屋前雨遮、天井封閉、垂直增建一層（頂樓加蓋）、圍牆，市府當時發出通知書要求顏家限期拆除。事後顏家火速搬離豪宅，以市價約5折的價格4500萬拋售，試圖斷尾求生，新買主據傳是一家空間設計公司，是顏家御用的設計師。3月22日顏寬恒託助理領表，登記參選國民黨台中市第二選區立委黨內初選，短短六天傳出檢調接獲檢舉，顏家豪宅表面上已拋售，但相關買賣、過戶恐怕涉及假交易，檢調兵分多路搜索前立委顏寬恒住處等地，帶走顏寬恒與妻子陳麗淩偵訊，經漏夜偵訊後各以1000萬元、500萬元交保候傳。看更多新聞》「蛋蛋地圖」來了！全聯、家樂福進口蛋開賣 1秒查庫存不撲空
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>馬英九自稱「前總統」在中國首提中華民國</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272294</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-記者陳怡潔／台北報導▲馬英九至中山陵揮毫寫下8字「和平奮鬥 振興中華」。（圖／馬英九辦公室提供）前總統馬英九昨天以「祭祖」名義前往中國訪問12天，成為兩岸分治74年來，首位踏上中國的中華民國卸任元首。馬英九今(28)日上午到南京中山陵拜謁國父孫中山，並於參觀完孫中山紀念館後發表談話，自稱「馬英九前總統」，並提及中華民國，呼籲兩岸共同努力，追求和平、避免戰爭，致力振興中華。馬英九今天上午到南京中山陵拜謁國父孫中山，現場揮毫寫下8字「和平奮鬥 振興中華」。將孫中山臨終前在病榻上的遺言「和平、奮鬥、救中國」改寫。馬英九致詞全文：民國112年3月28日馬英九前總統率馬英九基金會同仁與同學敬謁南京中山陵致詞全文 各位同仁、各位同學：國父孫中山先生畢生領導國民革命，推翻滿清，創建民國，到今天已經112年了。回想當時的中國，滿清政府貪污腐敗，積弱不振、飽受列強侵略。從1842年（清道光22年）簽訂「中英南京條約」以來，被迫跟50多國簽訂100多個不平等條約，割地賠款、喪權辱國。而當時中國社會貧富懸殊，文盲處處、法治不彰、社會發展落後，人民無力反抗，國勢危如壘卵，國家看不到希望。幸賴國父1894年（清光緒20年）在美國檀香山成立興中會，登高一呼，提出「驅除韃虜，恢復中華，創立合眾政府」的建國理想，號召海內外志士仁人共襄大業，歷經革命先烈十次流血革命行動，終於在18年後的1911年(清宣統3年)，推翻滿清，終結中國四千多年的君主專政，建立亞洲第一個民主共和國─中華民國。國父對中國史無前例的偉大貢獻，就是改變中國的命運，讓中國走向富強康樂的開始。兩岸人民同屬中華民族，都是炎黃子孫。今天，當年國父念茲在茲的多項建國主張，都已陸續分別在臺灣與大陸實現，這對於兩岸人民與後代子孫的生活與福祉，至關重要。民國14年（1925年）3月12日國父逝世。在遺言中要求國人要「和平、奮鬥、救中國」。98年後的今天，我們馬英九基金會的數十位同仁與同學，從臺灣來到南京中山陵國父靈前致祭，提出「和平奮鬥、振興中華」的目標，深盼兩岸共同努力，追求和平、避免戰爭，致力振興中華。這是兩岸中國人不可迴避的責任，我們一定要努力實現。
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>馬英九哽咽嘆氣：我們中國人要自立自強</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272829</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-記者陳怡潔／台北報導【3/29 11:15 發稿 ｜ 12:30 更新：新增影音 】▲馬英九參訪南京大屠殺紀念館。前總統馬英九以「祭祖」名義前往中國訪問12天，今(29)日上午參訪南京大屠殺紀念館，並於參訪完後受訪時些微哽咽說，「關於南京大屠殺歷史書籍照片，我也看了一些，但從來沒有像今天這樣有這麼大的衝擊……」，並嘆了一口氣。馬英九也指出，「我覺得我們所有中國人，都應該從這件事情上得到教訓，自立自強，才不會被人欺凌」。馬英九今天上午參訪侵華日軍南京大屠殺（江東門紀念館）遇難同胞紀念館，於參訪前在館外進行祭奠儀式，向遇難同胞獻花、獻花籃致祭。國台辦副主任陳元豐、南京市委書記韓立明、江蘇省常委惠建林、國台辦聯絡局局長孫升亮、江蘇省台辦主任練月琴、南京市委秘書長蔣躍建陪同致祭，全員鞠躬默哀。入內人員皆被提醒要穿著深色服裝，談話聲量降低，手機調整靜音，馬英九也特別繫上黑領帶。看更多新聞》每天早餐吃三明治！37歲旅歐男回台灣健檢下場慘馬英九表示，關於南京大屠殺歷史書籍照片，他也看了一些，但從來沒有像今天這樣有這麼大的衝擊……，馬嘆了一口氣繼續說，因為這是人類歷史上罕見野獸般的行為，中國人成為最大受害者，所以他剛才在留言簿上寫著「歷史絕不可以遺忘」，「我覺得我們所有中國人都應該從這件事情上，得到教訓、自立自強，才不會被人欺凌、任人宰割，這是我最大感受」。馬英九認為，身為一個中國人，不管在海峽哪一邊，都應該自立自強，對於來自外面欺凌，要勇敢抵抗，這是要從小學、中學、大學教育中，讓民眾了解重要事實，並採取必要準備。坦言情緒的確受到很大衝擊，這跟看書看照片感受完全不一樣，中國這個民族，歷史上有很大災難，從沒有像跟日本人作戰過程中受到這麼多屈辱、迫害，經過這麼長時間沒有完全康復，我們應該自立自強 應該注意保持仁愛的心，不要侵略別人，這是得到最好教訓。而許多外媒預言兩岸可能開打，中國不放棄武統，該怎麼做避免戰爭威脅？馬英九說，兩岸都應該避戰、謀和，避免戰爭發生，並研商如何避免戰爭，一旦戰爭發生，沒有其他任何事可以彌補。看更多新聞》馬英九赴中「兩大負面影響」曝 學者全說了▲馬英九參訪南京大屠殺紀念館，留言簿上寫著「歷史絕不可以遺忘」。(圖/馬英九辦公室提供)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>他斥「藍色1450」捧張善政：操作狒狒事件</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272877</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-政治中心／台北報導媒體人陳揮文昨（28日）晚在《飛碟晚餐 陳揮文時間》廣播節目談到狒狒事件表示，他懷疑有人操作、物極必反，之前吹捧桃園市長張善政的迴力鏢來得「又快又狠」，斥藍色1450「好不到哪裡去」。▲陳揮文認為，狒狒事件有人操作。（圖／翻攝畫面）陳揮文在廣播節目上說，桃園市政府同仁的表現「荒腔走板」，實在不好，對照最近桃園新聞那麼多、用滾的，熱鬧滾滾，絕非偶然，而是有人在操作，物極必反，之前有六都好感度調查，第一名是張善政，現在再調查，因為狒狒事件，張鐵定最後一名。陳揮文接著說，「這種操作，我跟你講，綠色的1450讓人很叉叉，藍色的1450也好不到哪裡去，我只能告訴大家，事出必有因、空穴不來風！」狒狒事件大作特作，是有很多不為人知的原因。陳揮文說，前總統馬英九訪中是「大事」，蔡英文總統29日出訪中南美洲友邦、來回過境美國，鴻海創辦人郭台銘人也在美國，過幾天民眾黨主席柯文哲也要到美國，「有這麼多新聞可以談，你在談狒狒，不知道大家...到底孰輕孰重。」他又說，「我當然是反對，（抓狒狒）怎麼會用獵槍！你不是有麻醉槍嗎？有麻醉槍、幹嘛用獵槍？我還是不懂，這麼多人，抓了這麼多天，最後的結果居然是這麼的那個，可見不行。」陳揮文最後下了結論，「之前對張善政在桃園的吹捧，那個不是偶然，但是我要講的是，迴力鏢來得又快又狠！」
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>陸搶當宏國留學生新家　外交部一句話嗆爆</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272498</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-政治中心／蕭宥宸報導▲宏國政府選擇倒向中共，讓在台留學生處境尷尬。（示意圖／資料照）抗拒不了中共誘惑，前友邦宏都拉斯26日與我國斷交，結束長達82年的邦誼。目前宏國共有104名在台留學生領有台灣獎學金，如今恐失援助，中共也不忘趁隙而入，稱願意接受宏國所有在台留學生，還要成為「他們溫暖的新家」。對此，我國外交部發言人劉永健表示，留學生的獎學金將提供至本學期為止，學期末也會給他們回國的單程機票；至於中國的挖牆腳，他直言：「哪個社會有利於學習，答案非常清楚」。根據教育部的統計資料，目前有359名宏國留學生在台求學，分布在國內21所大專院校，台大、銘傳各有31名占大宗，政大約20名，台師大、清大各16名。359人中修讀正式學位者220位，華語生138位，交換生1位，104人領有台灣提供的獎學金，邦交告終恐影響其就學權益。中共外交主管機關發言人毛寧昨（27）日就趁機收買民心，稱願意接受全部宏國留學生，還要成為他們溫暖的新家。劉永健今日於外交部例會中回應，為彰顯我國重視人權與人道考量，宏國與我斷交後，留學生們原先領有的獎學金會提供到這學期結束，學期末也會給他們回國的單程機票，減少對宏國學生的影響。劉永健還說，與台灣社會的自由、民主、開放相比，中國集權、封閉又不容許言論自由，「哪個社會比較有利學習，這個答案非常清楚」。
-</t>
+政治中心／綜合報導▲對於顏寬恒夫婦遭搜索千萬交保，立委林靜儀表示之前在地方沒有特別聽說，並呼籲顏寬恆跟民眾說清楚。前立委顏寬恒去年初投入台中第二選區立委補選，遭爆出佔用水利地、沙鹿豪宅違建爭議，上周顏寬恆登記</t>
         </is>
       </c>
     </row>

--- a/setn_data.xlsx
+++ b/setn_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,18 +456,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>蔣萬安：明年1月恢復YouBike前30分鐘免費</t>
+          <t>1原因！鄉民驚曝：郭台銘參戰將贏侯友宜</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272990</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1276029</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-記者陳怡潔／台北報導▲蔣萬安出席市政會議。（圖／北市府提供）台北市長蔣萬安在競選期間提出要恢復YouBike前30分鐘免費政見，國民黨台北市議員詹為元則提出質疑，YouBike無車可借成為台北市民最頭痛的問題。對此，蔣萬安今（29日）表示，上半年會增加1780台，屆時前30分鐘免費上路後會做更有效配置，正在進行數據分析；而目前規劃前30分鐘免費將在明年1月上路。詹為元昨天指出，蔣萬安提出YouBike前三十分鐘免費的政策，立意雖良善，但政策推行前應先檢討空車率過高的問題。民眾陳情的前五大案件中，居於首位就是「無車可借」，近3個月的總數就高達61次，是排名第5位的「遺失車通報」問題的兩倍之多。而且，現狀無車可借統計數據無法反映真實情況，因為大多數民眾都是走到租借點發現沒車後就會離開選擇其他交通方式，根本懶得通報，因此存在著巨大的黑數，無車可借的次數可能不僅檯面上的數字而已。蔣萬安今天出席112年本府模範公務人員暨優秀青年公務人員表揚典禮，會前接受媒體聯訪表示，他自己在熱門站點也遇過無車可借，到目的地無停車柱可還，所以為了解決這問題，已經指示交通局，上半年進行小規模車輛增加，1780輛，接下來請交通局、資訊局透過資料分析，做更有效率、聰明的配置，進行優化調度，才能真正解決問題。媒體詢問，什麼時候恢復前30分鐘免費？蔣萬安透露，目前規劃明年1月，會做好配套措施。
+政治中心／綜合報導▲侯友宜與郭台銘。（組合圖／翻攝自兩人臉書）今（5）日鴻海集團創辦人郭台銘宣布投入國民黨總統初選，他也特別提到尚未表態新北市長侯友宜，表示如果做出來的結果是由侯友宜勝出的話，自己會支持侯，展現團結態度。郭侯之爭誰能獲勝，各界看法不一，稍早PTT就有網友發文，分享了郭台銘可能勝過侯友宜的部分，可能在於南部與淺綠選民的認同。▲PTT網友討論郭侯之爭。（圖／翻攝自PTT）該網友在PTT政黑版發文，以「郭跟侯誰能拿到南部的票？」為標題寫下，認真問，郭台銘跟侯友宜，誰能穿越濁水溪拿到南部票？誰能夠讓綠的願意選人不選黨去投他？直接說了就是郭台銘！他更描述，自己認識不少政治立場本身偏綠的人都欣賞果凍（郭台銘），也認同郭台銘至今的成就。他更直言「民進黨現在最怕的會是郭台銘」。他的說法掀起討論，網友看法不一紛紛留言「你認識的樣本數有幾個」、「兩人目前都拿不到，賴是輾壓程度」、「南部人根本不太認識侯友宜」、「果凍才是全台灣都認識的人」、「都不行，一個要廢武器，一個廢話連篇」；也有網友聯想到上屆參選的前高雄市長韓國瑜，直言「認真說，這兩個都不行，只有韓總可以」。
 </t>
         </is>
       </c>
@@ -478,18 +478,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>馬英九哽咽嘆氣：我們中國人要自立自強</t>
+          <t>不是郭台銘？媒體人曝侯友宜「最大敵人」</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272829</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1263098</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-記者陳怡潔／台北報導【3/29 11:15 發稿 ｜ 12:30 更新：新增影音 】▲馬英九參訪南京大屠殺紀念館。前總統馬英九以「祭祖」名義前往中國訪問12天，今(29)日上午參訪南京大屠殺紀念館，並於參訪完後受訪時些微哽咽說，「關於南京大屠殺歷史書籍照片，我也看了一些，但從來沒有像今天這樣有這麼大的衝擊……」，並嘆了一口氣。馬英九也指出，「我覺得我們所有中國人，都應該從這件事情上得到教訓，自立自強，才不會被人欺凌」。馬英九今天上午參訪侵華日軍南京大屠殺（江東門紀念館）遇難同胞紀念館，於參訪前在館外進行祭奠儀式，向遇難同胞獻花、獻花籃致祭。國台辦副主任陳元豐、南京市委書記韓立明、江蘇省常委惠建林、國台辦聯絡局局長孫升亮、江蘇省台辦主任練月琴、南京市委秘書長蔣躍建陪同致祭，全員鞠躬默哀。入內人員皆被提醒要穿著深色服裝，談話聲量降低，手機調整靜音，馬英九也特別繫上黑領帶。看更多新聞》每天早餐吃三明治！37歲旅歐男回台灣健檢下場慘馬英九表示，關於南京大屠殺歷史書籍照片，他也看了一些，但從來沒有像今天這樣有這麼大的衝擊……，馬嘆了一口氣繼續說，因為這是人類歷史上罕見野獸般的行為，中國人成為最大受害者，所以他剛才在留言簿上寫著「歷史絕不可以遺忘」，「我覺得我們所有中國人都應該從這件事情上，得到教訓、自立自強，才不會被人欺凌、任人宰割，這是我最大感受」。馬英九認為，身為一個中國人，不管在海峽哪一邊，都應該自立自強，對於來自外面欺凌，要勇敢抵抗，這是要從小學、中學、大學教育中，讓民眾了解重要事實，並採取必要準備。坦言情緒的確受到很大衝擊，這跟看書看照片感受完全不一樣，中國這個民族，歷史上有很大災難，從沒有像跟日本人作戰過程中受到這麼多屈辱、迫害，經過這麼長時間沒有完全康復，我們應該自立自強 應該注意保持仁愛的心，不要侵略別人，這是得到最好教訓。而許多外媒預言兩岸可能開打，中國不放棄武統，該怎麼做避免戰爭威脅？馬英九說，兩岸都應該避戰、謀和，避免戰爭發生，並研商如何避免戰爭，一旦戰爭發生，沒有其他任何事可以彌補。看更多新聞》馬英九赴中「兩大負面影響」曝 學者全說了▲馬英九參訪南京大屠殺紀念館，留言簿上寫著「歷史絕不可以遺忘」。(圖/馬英九辦公室提供)
+政治中心／許元馨報導▲媒體人認為「侯友宜的敵人向來不是郭台銘，而是他自己。」（圖／資料照）國民黨2024總統人選尚未明朗，新北市長侯友宜被視為熱門人選，但遲遲未表態。日前，國民黨在南投立委補選失利，黨內掀起檢討聲浪，侯友宜遭點名是「戰犯」引起外界關注。對此，資深媒體人黃光芹表示，「即使國民黨不抓戰犯，他的民調早已直直落」，黃光芹更指出，「侯友宜的敵人向來不是郭台銘，而是他自己。」黃光芹今（10）日在臉書發文表示，「強摘的瓜不甜！侯友宜的敵人，向來不是郭台銘，而是他自己。」黃光芹表示，3月4日是侯友宜自證他並非最強母雞的分水嶺。即使國民黨不抓戰犯，侯的民調早已直直落，無量下跌到沒有休止的地步，尚未出戰，就已進入死亡交叉，「只證明歷經年後一陣腥風血雨，他不過拚了個內鬥第一名，若是放出來打外仗，其實根本不能打。」黃光芹批，「挺侯派急了，出動里長、議長，連媒體人都急到開始出來放假消息。或許是他昨晚夢到，郭台銘因回黨要他道歉而怒，無招可出時，再拿冷飯熱炒一遍，看可不可幫侯再打雞血、讓他再繼續虛胖下去？」至於「侯友宜的問題出在哪兒？」黃光芹分析，「只要看看過去的秃子韓國瑜，和現在的燕子盧秀燕；之後，再照照鏡子，看看他這個漢子，到底強在哪裡？或許日後可以不需再靠民意反指標的名嘴助陣。因為他們每一次都說錯，下一次還會繼續說，而且永遠不會負責任。」
 </t>
         </is>
       </c>
@@ -500,18 +500,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>顏寬恒夫婦遭搜索千萬交保　林靜儀說話了</t>
+          <t>郭台銘宣布選總統　曾馨瑩現身反應曝光</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272818</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1275864</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-政治中心／綜合報導▲對於顏寬恒夫婦遭搜索千萬交保，立委林靜儀表示之前在地方沒有特別聽說，並呼籲顏寬恆跟民眾說清楚。前立委顏寬恒去年初投入台中第二選區立委補選，遭爆出佔用水利地、沙鹿豪宅違建爭議，上周顏寬恆登記</t>
+記者許皓婷／台北報導▲郭台銘走上舞台後，曾馨瑩才低調進入會場。鴻海創辦人郭台銘今（5）日舉辦「台灣需要⼀個很棒的CEO」心得報告記者會，正式宣布爭取國民黨2024總統提名，夫人曾馨瑩也現身陪同，她從頭到尾低調站在台下，雖先前曾表態不支持郭台銘參選總統，但如今也似乎選擇用行動力挺丈夫。郭台銘5日10點舉辦「台灣需要⼀個很棒的CEO」心得報告記者會，宣布爭取國民黨2024總統提名，太太曾馨瑩也到場陪同，只見她穿著白上衣，走在郭台銘後方，兩人一前一後現身，等到郭台銘上台後，她才默默進入會場，似乎刻意低調不想引人注目，當郭台銘在台上致詞時，她全程站在台下，並在郭台銘結束談話後，雙方才一同離開。事實上，郭台銘是否參選2024總統大選，一直備受關注，先前面對媒體詢問，會不會回國民黨？郭台銘當時稱「在等國民黨的辦法」，但一旁的曾馨瑩，被問到是否贊成郭台銘參選總統？她則搖頭回應，郭台銘更透露，「她（曾馨瑩）不贊成，這問題還沒有解決。」▲郭台銘宣布爭取國民黨2024提名，曾馨瑩到場陪同。
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>黃珊珊宣布：我已正式加入台灣民眾黨</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1276275</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+記者邱筠媜／台北報導▲黃珊珊今證實已加入台灣民眾黨。（圖／翻攝黃珊珊臉書）前台北市副市長黃珊珊昨日才表示，現在「to do list」置頂選項就是「全力支持柯文哲參選2024」，今（6）日就在臉書發文宣告「我已正式加入台灣民眾黨」，她說，希望台灣能夠擺脫統獨意識形態對立、擺脫藍綠在地方與黑金共治，共同承擔改變政治文化的重責大任。黃珊珊表示，從政24年，服務公眾已經是她的生活習慣，她很清楚，對於台灣這塊土地與人民仍有十足的熱情與一份深深的責任感，去年選舉過後，她最不捨的，就是支持她的選民與年輕朋友。「他們對我的信任和支持、他們期盼掙脫政黨對立與意識形態的綑綁，因此賦予了我34萬票的期待。這份期待好重好重，讓我沒辦法揮揮衣袖遠離政治，用盡全力，我也想為這群支持我的人們，打造一個符合民眾期待的正常國家。」黃珊珊指出，她深信柯文哲與台灣民眾黨，「正是彰顯正直誠信的正確選擇。」在台北市議會見證柯文哲執政五年，到市政府擔任副市長近三年，與柯文哲朝夕相處，也和民眾黨的朋友並肩作戰，我充分體認到，要改變台灣政治，就必須凝聚這股力量，唯有壯大這股力量，我們才更有能量，去對抗黑金貪腐，去對抗金權政治。看更多新聞》獨家／東京「新宿御苑」櫻花盛開 野餐見「粉櫻吹雪」超浪漫黃珊珊說，柯文哲並不完美，但他在政治文化上所帶來的改變是顯而易見的，無論是堅守財政紀律、追求公平正義，開放政府、公開透明、以人為本、務實治理，最重要的，就是正直誠信，這八年來，她不只是「改變成真」的見證者，也是身體力行的執行者，柯市府留下的制度與團隊文化，確實為台北的未來帶來正面的發展。黃珊珊表示，去年參選台北市長，雖然結果不如預期，但我堅信，改變政治文化的社會運動已經開花結果，全台灣已經有相當比例的中間選民從藍綠對立中覺醒，唾棄棄保的遊戲規則，選擇更正確的價值。台灣因為有我們的存在，政治環境會更健康、更乾淨、更透明。黃珊珊提到，「如果台北已經產生改變，我們一樣也可以改變台灣。一個人走得快，一群人走得遠，今天起，我正式加入大家的行列，讓我們一起勇敢航向未知的未來，一起努力往目標前進！」看更多新聞》實價登錄出爐！周子瑜砸1.7億買「高雄豪宅」 單價飆到6字頭
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>蔡英文：美方支持讓台知道我們沒有被孤立</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1276125</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+政治中心／張家寧報導【 4/6 04:49 發稿 ｜ 07:58 更新：新增影音 】總統蔡英文於美國時間5日上午和美國眾議院議長麥卡錫、跨黨派眾議員會晤，會後蔡英文和麥卡錫兩人共同發表聲明。蔡英文感性表示，台灣致力成為世界的可靠夥伴以及良善的力量，並引用論語「德不孤，必有鄰」，感謝美國的支持。▲蔡英文和麥卡錫歷史性會晤。（圖／翻攝自麥卡錫推特）蔡英文和麥卡錫在會後發表共同聲明，蔡英文表示，自己很高興再次造訪雷根總統圖書館，與麥卡錫議長及各位國會議員見面，除了感謝議長的盛情接待外，同時也感謝其他跨黨派的國會領袖撥冗與會，「各位的參與及堅定支持讓台灣人民了解到，我們沒有被孤立，也並不孤單」。蔡英文指出，在外交領域經歷重大變動的年代，雷根總統扮演關鍵角色，保護、鞏固台美關係，盛讚該地點是最佳的會面地點，「給我們機會向這位備受尊敬的美國總統與世界領袖致敬。」蔡英文表示，如今在這個民主受到威脅的世界中，讓自由的燈塔永存不滅，可以說是當務之急，並引用雷根總統曾說過的「自由並不是代代相傳的，每個世代都必須不斷捍衛及爭取自由」。蔡英文接著也透露稍早和國會領袖會面時，重申台灣維護和平現狀的決心，那就是讓台灣的人民繼續在自由開放的社會中生活，會中也提及雷根總統的信念「要維護和平，必須先強大自己」。最後，蔡英文也強調，台灣致力成為世界的可靠夥伴，並引用論語「德不孤，必有鄰」，認為台灣努力捍衛現有生活方式的同時，非常感謝美方給予的支持，同時也再次感謝麥卡錫議長的溫暖接待及友誼，也對一直和台灣站在一起的所有美國國會的友人表達感謝。
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>看2024大選民調　吳子嘉：藍營派這人最強</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1274758</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+政治中心／許元馨報導▲2024總統大選，國民黨會派誰出戰備受外界關注。（合成圖／翻攝自郭台銘、朱立倫、侯友宜臉書）藍綠白布局2024總統大選，《美麗島電子報》3月公布最新總統民調顯示，藍綠兩強對決，賴清德對侯友宜，賴支持度為43.4％，侯友宜是41.3％。對此，《美麗島電子報》董事長吳子嘉1日在網路節目表示「到今為止，國民黨還是派侯友宜最強」。根據《美麗島電子報》最新2024總統大選民調，「賴清德vs.侯友宜」的盤勢下，民眾比較希望誰擔任下屆總統時，賴清德支持度為43.4％，侯友宜41.3％。三腳督部分「賴清德vs.侯友宜vs.柯文哲」民調顯示結果，賴清德以38.4％的支持度領先，其次是侯友宜26.2％、柯文哲20.3％。吳子嘉1日在網路節目《董事長開講》被一名網友問道「若是在2024三腳督的情況下，國民黨派誰會最強？」對此，吳子嘉表示，「我認為到今天為止，國民黨還是派侯友宜最強」，而坐在一旁的資深媒體人黃暐瀚則認同說「嗯，我的看法也一樣，就是侯友宜」。
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>蔡英文讚眾議員：大家都很溫暖像加州陽光</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1276133</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+政治中心／張家寧報導總統蔡英文於美國時間5日上午和美國眾議院議長麥卡錫、跨黨派眾議員會晤，會議開始前，雙方分別由麥卡錫、蔡英文逐一介紹與會出席的代表，隨後也發表致詞，蔡英文除了感謝議長麥卡錫的熱情邀約，也大讚與會官員們的溫暖就像加州的陽光一樣，「謝謝各位跟台灣站在一起。」▲麥卡錫在推特貼出眾人合照。（圖／翻攝自麥卡錫推特）蔡英文在加州洛杉磯雷根總統圖書館與美國眾議院議長麥卡錫（Kevin McCarthy）會面，這場歷史性會面備受國際關注，閉門會議開始前，麥卡錫於致詞時表示，這是一個跨黨派的議員會晤，「美國與台灣是親密的盟友，有信心美國與台灣能一起為了經濟、自由、民主、亞洲的和平穩定等，持續進行合作。」民主黨團主席艾吉拉則表示，美台40年來共同努力促進經濟成長、民主與安全共同合作，在拜登政府的合作下也將進一步強化美台關係。而蔡英文隨後則感性向麥卡錫的熱情邀約表達感謝，「大家都很溫暖，就像加州的陽光一樣，謝謝各位跟台灣站在一起。」
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>「蔡麥會」創台美歷史一刻！蔡英文發聲了</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1276189</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+政治中心／魏聖凌報導▲蔡英文（左）會晤麥卡錫（右），成為台美友好歷史性一刻。（圖／翻攝自蔡英文推特）總統蔡英文於美國當地時間5日上午，於加州雷根圖書館和美國眾議院議長麥卡錫、跨黨派眾議員會晤，成為「台美友好」歷史性一刻。麥卡錫不僅稱呼蔡英文是美國的好朋友，並發推特表示「美國與台灣人民間的友誼從未如此強韌，能歡迎蔡總統來到雷根圖書館是我的榮幸。」對此，蔡英文稍早也在臉書發文表示「感謝麥卡錫議長的溫暖接待及友誼。謝謝所有美國國會的友人一直和台灣站在一起。」蔡英文提到，很高興有機會再次造訪雷根總統圖書館，與美國眾議院麥卡錫議長及跨黨派的國會議員見面。她表示，要感謝麥卡錫議長的盛情接待，也感謝他邀請跨黨派的國會領袖今天在百忙之中撥冗與會。「跨黨派國會議員的參與及堅定支持讓台灣人民了解到，我們沒有被孤立，也並不孤單。」蔡英文指出，「雷根總統圖書館可以說是我們最佳的會面地點，給我們機會向這位備受尊敬的美國總統與世界領袖致敬。」蔡英文表示，在外交領域經歷重大變動的年代，雷根總統扮演關鍵角色，與美國國會通力合作，保護並鞏固台美關係。雷根總統1982年的六項保證，以及國會通過的重要法案《台灣關係法》為這段已逾四十年歷史的強健、特殊的夥伴關係奠定基礎。在此期間，我們維護和平，促進繁榮，並見證台灣民主蓬勃發展。蔡英文提到，「然而現在，我們所有人都明白，我們先前所維護的和平，及努力打造的民主，正遭遇前所未有的挑戰。」在當下這個民主受到威脅的世界中，讓自由的燈塔永存不滅，可以說是當務之急。雷根總統就曾說過「自由並不是代代相傳的，每個世代都必須不斷捍衛及爭取自由」。看更多新聞》獨家／助郭台銘攻總統大位！傳將走川普模式 女兒郭曉玲任「重要角色」▲蔡英文（左）感謝麥卡錫（右）的溫暖接待及友誼。（圖／翻攝自蔡英文臉書）蔡英文表示，「今早與美國國會領袖會面時，我也重申台灣維護和平現狀的決心，讓台灣人民繼續在自由、開放的社會中生活。會議中，我也提及雷根總統的信念，那就是『要維護和平，必須先強大自己』。而且，只要我們團結一心，必定更強大」。「我也代表台灣人民，向美國國會跨黨派的國會議員致謝，感謝他們提出讓台灣及台美關係，更堅強的各項法案。這些法案協助強化台灣自我防衛的能力、建立台美之間強健的經貿連結，並支持台灣有意義的國際參與，均有助在印太區域捍衛我們的共同利益、和平及繁榮。」蔡英文提到，台灣致力成為世界的可靠夥伴，區域內穩定的基石，以及良善的力量。論語有言「德不孤，必有鄰」。在台灣努力捍衛現有生活方式的同時，我們非常感謝美國的支持。在面對這個世代獨特的挑戰時，我們要謹記奠定台美堅實關係的原則，不忘雷根總統傳承的意志與教訓。「再次感謝麥卡錫議長的溫暖接待及友誼。謝謝所有美國國會的友人一直和台灣站在一起。」看更多新聞》汐止恐怖命案！搭小黃發酒瘋　酒空「鎖喉」勒死司機
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>王世堅斷言：2024總統「他」瀕臨當選！</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1275920</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+政治中心／綜合報導▲台北市議員王世堅表示「如果賴清德的民調繼續維持這個高檔或攀升幾個％，幾乎斷定賴清德勝選。」藍綠白布局2024總統大選，《美麗島電子報》3月公布最新總統民調顯示，藍綠兩強對決，賴清德對侯友宜，賴支持度為43.4％，侯友宜是41.3％。對此，有扶龍王之稱的台北市議員王世堅今（５）日受訪表示，選舉是個比較，當信賴、喜歡賴清德的多，不信賴、不喜歡賴清德的少，「這樣幾乎瀕臨當選，如果賴清德的民調繼續維持這個高檔或攀升幾個％，幾乎斷定賴清德勝選。」美麗島電子報董事長吳子嘉日前在《董事長開講》節目中公布最新一份的2024總統大選民調，問及希望誰擔任下一任總統，結果顯示，在三足鼎立時，賴清德獲得41.4%、侯友宜驟降至29%、柯文哲拿到鐵盤17.6%；若將藍營人選換成郭台銘，賴清德則上升至42.8%、郭台銘僅拿到20.5%、柯文哲上升至20.3%。如果是一對一局面，賴清德有48.1%的支持度、侯友宜則為38.3%；若藍營由郭台銘出戰，賴清德微幅上升至50.1%、郭台銘僅33.2%，一對一民調並無柯文哲單獨出來的調查。對於民調的呈現，王世堅表示，當賴清德民調支持度高到一個程度，都在百分之四十幾以上時，就表示社會上絕大多數民眾認同、支持賴清德，相對也顯示討厭、不喜歡賴清德的非常低，會反對賴清德選總統的，就會佔微小的量，對比之下喜歡、信任賴清德的多，不喜歡、不信任賴清得的少，「選舉是個比較這樣幾乎瀕臨當選，如果賴的民調繼續維持這個高檔，或攀升幾個％，幾乎斷定賴清德勝選。」至於國民黨派誰？王世堅認為，藍營不是派出誰的問題，「這個傢伙太強了最後剩下他，當然他就出來了」。王世堅說，國民黨畢竟是深宮大院，有很多政治鬥爭的大內高手，「他們這位黨主席就是啊！深暗軟性鬥爭的技巧，很巧妙打了太極拳」，在他個人聲望最低的時候，使出太極拳手法，拖延整個戰局，讓其他比他強的人一一都躺下了，最後大家都躺下剩他一個，雖然他的支持度很低只有一成，一成不變之下，最後沒辦法那就是他了。王世堅強調「我很看好朱立倫的參選，我認為以他這麼深厚的功力，他應該會代表國民黨參選總統。」 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>蔡麥會／共艦經台灣東南海域　白宮說話了</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.setn.com/News.aspx?NewsID=1276132</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+對於中國在總統蔡英文與美國聯邦眾議院議長麥卡錫會談之際，中共海軍山東號航艦編隊穿越巴士海峽，航經台灣東南海域，白宮表示，正在密切注意，美方始終確保擁有必要能力和資源維護印太和平穩定。▲ 山東號航艦穿越巴士海峽 國防部披露監控照片，國防部5日表示，中共海軍山東號航艦編隊已穿越巴士海峽，經台灣東南海域，展開首次西太平洋航訓。圖為國軍海空監控山東艦照片。（圖／中央社）國防部表示，國軍運用聯合情監偵手段，掌握中共海軍山東號航艦編隊已穿越巴士海峽，經台灣東南海域，展開首次西太平洋航訓。稍早中國福建海事局也通報，其大型巡航救助船「海巡06」輪編隊開啟為期3天的「台灣海峽中北部聯合巡航巡查專項行動」。由於時值蔡總統過境美國並將與麥卡錫（Kevin McCarthy）會談之際，共軍行動引發關注。對於中國近來的軍事行動，白宮國安會戰略溝通協調官柯比（John Kirby）今天在媒體簡報時重申，中國沒有理由對蔡總統過境過度反應，因為台灣總統過境或與美國國會議員會晤並無不尋常之處，「十分平常」。美方立場不變，中方沒有理由反應過度。對於共軍軍艦航經台灣東南海域，柯比雖然未予以證實，但表示美方密切注意。他並指出，美方始終確保擁有必要能力與資源，以維護印太區域和平與穩定，中國沒有理由過度反應。國務院以發言人背景說明方式答覆中央社郵件詢問時也重申，蔡總統的過境是美方一貫做法，符合對台關係的官方性質與美國政策，並未改變。台灣高層也常與美國國會議員會晤。北京沒有理由利用這一符合美國長期政策的過境，作為過度反應的理由。（中央社華盛頓5日專電）
+</t>
         </is>
       </c>
     </row>
